--- a/raw_data/20200818_saline/20200818_Sensor2_Test_45.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_45.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013AE5C4-4C66-471C-8FFD-9FC0CC0C8E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>39973.534448</v>
+        <v>39973.534447999999</v>
       </c>
       <c r="B2" s="1">
-        <v>11.103760</v>
+        <v>11.103759999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1251.980000</v>
+        <v>1251.98</v>
       </c>
       <c r="D2" s="1">
-        <v>-285.019000</v>
+        <v>-285.01900000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>39984.052706</v>
+        <v>39984.052706000002</v>
       </c>
       <c r="G2" s="1">
         <v>11.106681</v>
       </c>
       <c r="H2" s="1">
-        <v>1274.940000</v>
+        <v>1274.94</v>
       </c>
       <c r="I2" s="1">
-        <v>-248.923000</v>
+        <v>-248.923</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>39994.708650</v>
+        <v>39994.70865</v>
       </c>
       <c r="L2" s="1">
         <v>11.109641</v>
       </c>
       <c r="M2" s="1">
-        <v>1309.480000</v>
+        <v>1309.48</v>
       </c>
       <c r="N2" s="1">
-        <v>-196.008000</v>
+        <v>-196.00800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>40005.233761</v>
+        <v>40005.233761000003</v>
       </c>
       <c r="Q2" s="1">
         <v>11.112565</v>
       </c>
       <c r="R2" s="1">
-        <v>1322.140000</v>
+        <v>1322.14</v>
       </c>
       <c r="S2" s="1">
-        <v>-180.651000</v>
+        <v>-180.65100000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>40015.807965</v>
       </c>
       <c r="V2" s="1">
-        <v>11.115502</v>
+        <v>11.115501999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="X2" s="1">
-        <v>-169.261000</v>
+        <v>-169.261</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>40026.224943</v>
+        <v>40026.224943000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.118396</v>
+        <v>11.118396000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1355.070000</v>
+        <v>1355.07</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.596000</v>
+        <v>-168.596</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>40036.742113</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.121317</v>
+        <v>11.121316999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1368.690000</v>
+        <v>1368.69</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.807000</v>
+        <v>-178.80699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>40047.186371</v>
+        <v>40047.186371000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.124218</v>
+        <v>11.124218000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1389.910000</v>
+        <v>1389.91</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.049000</v>
+        <v>-209.04900000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>40057.755621</v>
+        <v>40057.755620999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.127154</v>
+        <v>11.127154000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.066000</v>
+        <v>-253.066</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>40068.376953</v>
+        <v>40068.376952999999</v>
       </c>
       <c r="AU2" s="1">
         <v>11.130105</v>
       </c>
       <c r="AV2" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.213000</v>
+        <v>-313.21300000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>40079.524537</v>
+        <v>40079.524536999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.133201</v>
       </c>
       <c r="BA2" s="1">
-        <v>1455.840000</v>
+        <v>1455.84</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.437000</v>
+        <v>-365.43700000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>40090.811994</v>
+        <v>40090.811994000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.136337</v>
+        <v>11.136336999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1540.790000</v>
+        <v>1540.79</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.834000</v>
+        <v>-614.83399999999995</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>40101.514668</v>
+        <v>40101.514668000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>11.139310</v>
+        <v>11.13931</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.690000</v>
+        <v>1694.69</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1062.650000</v>
+        <v>-1062.6500000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>40112.345805</v>
+        <v>40112.345804999997</v>
       </c>
       <c r="BO2" s="1">
         <v>11.142318</v>
       </c>
       <c r="BP2" s="1">
-        <v>1988.680000</v>
+        <v>1988.68</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1839.520000</v>
+        <v>-1839.52</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>40123.508768</v>
@@ -691,362 +1107,362 @@
         <v>11.145419</v>
       </c>
       <c r="BU2" s="1">
-        <v>2377.090000</v>
+        <v>2377.09</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2740.360000</v>
+        <v>-2740.36</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>40134.301745</v>
+        <v>40134.301744999997</v>
       </c>
       <c r="BY2" s="1">
         <v>11.148417</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2858.720000</v>
+        <v>2858.72</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3721.270000</v>
+        <v>-3721.27</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>40145.633809</v>
+        <v>40145.633808999999</v>
       </c>
       <c r="CD2" s="1">
         <v>11.151565</v>
       </c>
       <c r="CE2" s="1">
-        <v>4272.740000</v>
+        <v>4272.74</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6093.920000</v>
+        <v>-6093.92</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>39973.883126</v>
+        <v>39973.883126000001</v>
       </c>
       <c r="B3" s="1">
         <v>11.103856</v>
       </c>
       <c r="C3" s="1">
-        <v>1251.950000</v>
+        <v>1251.95</v>
       </c>
       <c r="D3" s="1">
-        <v>-285.337000</v>
+        <v>-285.33699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>39984.611591</v>
+        <v>39984.611591000001</v>
       </c>
       <c r="G3" s="1">
-        <v>11.106837</v>
+        <v>11.106837000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1274.700000</v>
+        <v>1274.7</v>
       </c>
       <c r="I3" s="1">
-        <v>-249.454000</v>
+        <v>-249.45400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>39995.083654</v>
+        <v>39995.083654000002</v>
       </c>
       <c r="L3" s="1">
         <v>11.109745</v>
       </c>
       <c r="M3" s="1">
-        <v>1309.690000</v>
+        <v>1309.69</v>
       </c>
       <c r="N3" s="1">
-        <v>-196.301000</v>
+        <v>-196.30099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>40005.966856</v>
+        <v>40005.966855999999</v>
       </c>
       <c r="Q3" s="1">
         <v>11.112769</v>
       </c>
       <c r="R3" s="1">
-        <v>1322.070000</v>
+        <v>1322.07</v>
       </c>
       <c r="S3" s="1">
-        <v>-180.722000</v>
+        <v>-180.72200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>40016.523229</v>
+        <v>40016.523228999999</v>
       </c>
       <c r="V3" s="1">
         <v>11.115701</v>
       </c>
       <c r="W3" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.237000</v>
+        <v>-169.23699999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>40026.571648</v>
+        <v>40026.571647999997</v>
       </c>
       <c r="AA3" s="1">
         <v>11.118492</v>
       </c>
       <c r="AB3" s="1">
-        <v>1355.280000</v>
+        <v>1355.28</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.750000</v>
+        <v>-168.75</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>40037.128993</v>
+        <v>40037.128992999998</v>
       </c>
       <c r="AF3" s="1">
         <v>11.121425</v>
       </c>
       <c r="AG3" s="1">
-        <v>1368.720000</v>
+        <v>1368.72</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.833000</v>
+        <v>-178.833</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>40047.561347</v>
+        <v>40047.561347000003</v>
       </c>
       <c r="AK3" s="1">
         <v>11.124323</v>
       </c>
       <c r="AL3" s="1">
-        <v>1389.910000</v>
+        <v>1389.91</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.066000</v>
+        <v>-209.066</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>40058.137541</v>
+        <v>40058.137540999996</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.127260</v>
+        <v>11.12726</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1411.830000</v>
+        <v>1411.83</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.070000</v>
+        <v>-253.07</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>40069.085238</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.130301</v>
+        <v>11.130300999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.241000</v>
+        <v>-313.24099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>40080.205048</v>
+        <v>40080.205048000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>11.133390</v>
+        <v>11.13339</v>
       </c>
       <c r="BA3" s="1">
-        <v>1455.820000</v>
+        <v>1455.82</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.483000</v>
+        <v>-365.483</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>40090.920123</v>
+        <v>40090.920123000004</v>
       </c>
       <c r="BE3" s="1">
         <v>11.136367</v>
       </c>
       <c r="BF3" s="1">
-        <v>1540.850000</v>
+        <v>1540.85</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.857000</v>
+        <v>-614.85699999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>40101.621804</v>
+        <v>40101.621804000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>11.139339</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.700000</v>
+        <v>1694.7</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1062.740000</v>
+        <v>-1062.74</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>40112.783277</v>
+        <v>40112.783277000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.142440</v>
+        <v>11.142440000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1988.600000</v>
+        <v>1988.6</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1839.720000</v>
+        <v>-1839.72</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>40124.018194</v>
+        <v>40124.018193999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>11.145561</v>
+        <v>11.145561000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2376.550000</v>
+        <v>2376.5500000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2740.620000</v>
+        <v>-2740.62</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>40134.766496</v>
+        <v>40134.766495999997</v>
       </c>
       <c r="BY3" s="1">
         <v>11.148546</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2858.470000</v>
+        <v>2858.47</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3721.570000</v>
+        <v>-3721.57</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>40146.181393</v>
+        <v>40146.181392999999</v>
       </c>
       <c r="CD3" s="1">
         <v>11.151717</v>
       </c>
       <c r="CE3" s="1">
-        <v>4275.370000</v>
+        <v>4275.37</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6107.710000</v>
+        <v>-6107.71</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>39974.225372</v>
+        <v>39974.225372000001</v>
       </c>
       <c r="B4" s="1">
         <v>11.103951</v>
       </c>
       <c r="C4" s="1">
-        <v>1251.900000</v>
+        <v>1251.9000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-285.004000</v>
+        <v>-285.00400000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>39985.331781</v>
+        <v>39985.331781000001</v>
       </c>
       <c r="G4" s="1">
         <v>11.107037</v>
       </c>
       <c r="H4" s="1">
-        <v>1274.240000</v>
+        <v>1274.24</v>
       </c>
       <c r="I4" s="1">
-        <v>-249.426000</v>
+        <v>-249.42599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>39995.773064</v>
+        <v>39995.773064000001</v>
       </c>
       <c r="L4" s="1">
         <v>11.109937</v>
       </c>
       <c r="M4" s="1">
-        <v>1309.530000</v>
+        <v>1309.53</v>
       </c>
       <c r="N4" s="1">
-        <v>-196.239000</v>
+        <v>-196.239</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>40006.317414</v>
+        <v>40006.317413999997</v>
       </c>
       <c r="Q4" s="1">
         <v>11.112866</v>
       </c>
       <c r="R4" s="1">
-        <v>1322.050000</v>
+        <v>1322.05</v>
       </c>
       <c r="S4" s="1">
-        <v>-180.669000</v>
+        <v>-180.66900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>40016.866533</v>
@@ -1055,724 +1471,724 @@
         <v>11.115796</v>
       </c>
       <c r="W4" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="X4" s="1">
-        <v>-169.404000</v>
+        <v>-169.404</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>40026.922814</v>
+        <v>40026.922813999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.118590</v>
+        <v>11.118589999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1355.080000</v>
+        <v>1355.08</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.587000</v>
+        <v>-168.58699999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>40037.470736</v>
+        <v>40037.470736000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.121520</v>
+        <v>11.12152</v>
       </c>
       <c r="AG4" s="1">
-        <v>1368.710000</v>
+        <v>1368.71</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.892000</v>
+        <v>-178.892</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>40048.220531</v>
+        <v>40048.220530999999</v>
       </c>
       <c r="AK4" s="1">
         <v>11.124506</v>
       </c>
       <c r="AL4" s="1">
-        <v>1389.960000</v>
+        <v>1389.96</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.091000</v>
+        <v>-209.09100000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>40058.798212</v>
+        <v>40058.798212000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>11.127444</v>
+        <v>11.127444000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1411.830000</v>
+        <v>1411.83</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.064000</v>
+        <v>-253.06399999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>40069.500886</v>
+        <v>40069.500886000002</v>
       </c>
       <c r="AU4" s="1">
         <v>11.130417</v>
       </c>
       <c r="AV4" s="1">
-        <v>1436.530000</v>
+        <v>1436.53</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.201000</v>
+        <v>-313.20100000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>40080.628641</v>
+        <v>40080.628641000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.133508</v>
+        <v>11.133508000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1455.840000</v>
+        <v>1455.84</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.483000</v>
+        <v>-365.483</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>40091.270297</v>
+        <v>40091.270297000003</v>
       </c>
       <c r="BE4" s="1">
         <v>11.136464</v>
       </c>
       <c r="BF4" s="1">
-        <v>1540.830000</v>
+        <v>1540.83</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.884000</v>
+        <v>-614.88400000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>40101.997277</v>
+        <v>40101.997277000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.139444</v>
+        <v>11.139443999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.690000</v>
+        <v>1694.69</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1062.790000</v>
+        <v>-1062.79</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>40113.178590</v>
+        <v>40113.178590000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.142550</v>
+        <v>11.14255</v>
       </c>
       <c r="BP4" s="1">
-        <v>1988.440000</v>
+        <v>1988.44</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1839.740000</v>
+        <v>-1839.74</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>40124.453149</v>
+        <v>40124.453149000001</v>
       </c>
       <c r="BT4" s="1">
         <v>11.145681</v>
       </c>
       <c r="BU4" s="1">
-        <v>2376.270000</v>
+        <v>2376.27</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2740.960000</v>
+        <v>-2740.96</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>40135.211407</v>
+        <v>40135.211407000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.148670</v>
+        <v>11.148669999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2859.100000</v>
+        <v>2859.1</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3721.080000</v>
+        <v>-3721.08</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>40146.703222</v>
+        <v>40146.703221999996</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.151862</v>
+        <v>11.151861999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>4293.330000</v>
+        <v>4293.33</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6090.450000</v>
+        <v>-6090.45</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>39974.914309</v>
       </c>
       <c r="B5" s="1">
-        <v>11.104143</v>
+        <v>11.104143000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1252.000000</v>
+        <v>1252</v>
       </c>
       <c r="D5" s="1">
-        <v>-284.997000</v>
+        <v>-284.99700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>39985.662619</v>
+        <v>39985.662619000002</v>
       </c>
       <c r="G5" s="1">
         <v>11.107129</v>
       </c>
       <c r="H5" s="1">
-        <v>1274.700000</v>
+        <v>1274.7</v>
       </c>
       <c r="I5" s="1">
-        <v>-249.970000</v>
+        <v>-249.97</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>39996.118373</v>
+        <v>39996.118372999998</v>
       </c>
       <c r="L5" s="1">
         <v>11.110033</v>
       </c>
       <c r="M5" s="1">
-        <v>1309.720000</v>
+        <v>1309.72</v>
       </c>
       <c r="N5" s="1">
-        <v>-195.773000</v>
+        <v>-195.773</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>40006.665707</v>
       </c>
       <c r="Q5" s="1">
-        <v>11.112963</v>
+        <v>11.112963000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1322.020000</v>
+        <v>1322.02</v>
       </c>
       <c r="S5" s="1">
-        <v>-180.686000</v>
+        <v>-180.68600000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>40017.209692</v>
+        <v>40017.209691999997</v>
       </c>
       <c r="V5" s="1">
-        <v>11.115892</v>
+        <v>11.115892000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.360000</v>
+        <v>-169.36</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>40027.583982</v>
+        <v>40027.583981999996</v>
       </c>
       <c r="AA5" s="1">
-        <v>11.118773</v>
+        <v>11.118772999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.609000</v>
+        <v>-168.60900000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>40038.128466</v>
+        <v>40038.128466000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.121702</v>
+        <v>11.121702000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.804000</v>
+        <v>-178.804</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>40048.606915</v>
+        <v>40048.606914999997</v>
       </c>
       <c r="AK5" s="1">
         <v>11.124613</v>
       </c>
       <c r="AL5" s="1">
-        <v>1389.930000</v>
+        <v>1389.93</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.033000</v>
+        <v>-209.03299999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>40059.243656</v>
+        <v>40059.243655999999</v>
       </c>
       <c r="AP5" s="1">
         <v>11.127568</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1411.890000</v>
+        <v>1411.89</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.070000</v>
+        <v>-253.07</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>40069.892230</v>
+        <v>40069.892229999998</v>
       </c>
       <c r="AU5" s="1">
         <v>11.130526</v>
       </c>
       <c r="AV5" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.176000</v>
+        <v>-313.17599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>40081.004631</v>
+        <v>40081.004631000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11.133612</v>
+        <v>11.133611999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1455.840000</v>
+        <v>1455.84</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.456000</v>
+        <v>-365.45600000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>40091.632377</v>
+        <v>40091.632377000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.136565</v>
+        <v>11.136564999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1540.850000</v>
+        <v>1540.85</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.927000</v>
+        <v>-614.92700000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>40102.376251</v>
+        <v>40102.376251000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.139549</v>
+        <v>11.139549000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1694.620000</v>
+        <v>1694.62</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1062.640000</v>
+        <v>-1062.6400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>40113.600684</v>
+        <v>40113.600683999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.142667</v>
+        <v>11.142666999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1988.440000</v>
+        <v>1988.44</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1839.770000</v>
+        <v>-1839.77</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>40124.868796</v>
+        <v>40124.868796000002</v>
       </c>
       <c r="BT5" s="1">
         <v>11.145797</v>
       </c>
       <c r="BU5" s="1">
-        <v>2375.950000</v>
+        <v>2375.9499999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2740.990000</v>
+        <v>-2740.99</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>40135.645907</v>
+        <v>40135.645906999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>11.148791</v>
+        <v>11.148790999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2858.690000</v>
+        <v>2858.69</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3721.390000</v>
+        <v>-3721.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>40147.241375</v>
+        <v>40147.241374999998</v>
       </c>
       <c r="CD5" s="1">
         <v>11.152011</v>
       </c>
       <c r="CE5" s="1">
-        <v>4273.250000</v>
+        <v>4273.25</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6094.660000</v>
+        <v>-6094.66</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>39975.254562</v>
+        <v>39975.254562000002</v>
       </c>
       <c r="B6" s="1">
-        <v>11.104237</v>
+        <v>11.104236999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1251.870000</v>
+        <v>1251.8699999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-285.302000</v>
+        <v>-285.30200000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>39986.006839</v>
+        <v>39986.006839000001</v>
       </c>
       <c r="G6" s="1">
         <v>11.107224</v>
       </c>
       <c r="H6" s="1">
-        <v>1274.730000</v>
+        <v>1274.73</v>
       </c>
       <c r="I6" s="1">
-        <v>-249.641000</v>
+        <v>-249.64099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>39996.466009</v>
+        <v>39996.466009000003</v>
       </c>
       <c r="L6" s="1">
-        <v>11.110129</v>
+        <v>11.110129000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1309.570000</v>
+        <v>1309.57</v>
       </c>
       <c r="N6" s="1">
-        <v>-196.097000</v>
+        <v>-196.09700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>40007.330344</v>
+        <v>40007.330344000002</v>
       </c>
       <c r="Q6" s="1">
         <v>11.113147</v>
       </c>
       <c r="R6" s="1">
-        <v>1322.050000</v>
+        <v>1322.05</v>
       </c>
       <c r="S6" s="1">
-        <v>-180.564000</v>
+        <v>-180.56399999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>40017.867356</v>
+        <v>40017.867356000002</v>
       </c>
       <c r="V6" s="1">
-        <v>11.116074</v>
+        <v>11.116073999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="X6" s="1">
-        <v>-169.285000</v>
+        <v>-169.285</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>40027.970394</v>
+        <v>40027.970394000004</v>
       </c>
       <c r="AA6" s="1">
         <v>11.118881</v>
       </c>
       <c r="AB6" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.795000</v>
+        <v>-168.79499999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>40038.501919</v>
+        <v>40038.501919000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.121806</v>
+        <v>11.121805999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1368.710000</v>
+        <v>1368.71</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.848000</v>
+        <v>-178.84800000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>40048.956593</v>
+        <v>40048.956593000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>11.124710</v>
+        <v>11.12471</v>
       </c>
       <c r="AL6" s="1">
-        <v>1389.930000</v>
+        <v>1389.93</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.040000</v>
+        <v>-209.04</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>40059.602756</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.127667</v>
+        <v>11.127667000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1411.830000</v>
+        <v>1411.83</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.041000</v>
+        <v>-253.041</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>40070.255333</v>
+        <v>40070.255333000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.130626</v>
+        <v>11.130625999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1436.480000</v>
+        <v>1436.48</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.155000</v>
+        <v>-313.15499999999997</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>40081.383048</v>
+        <v>40081.383048000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>11.133718</v>
       </c>
       <c r="BA6" s="1">
-        <v>1455.820000</v>
+        <v>1455.82</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.448000</v>
+        <v>-365.44799999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>40092.060920</v>
+        <v>40092.060920000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>11.136684</v>
+        <v>11.136684000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1540.800000</v>
+        <v>1540.8</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.850000</v>
+        <v>-614.85</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>40102.794843</v>
+        <v>40102.794843000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.139665</v>
+        <v>11.139665000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1694.630000</v>
+        <v>1694.63</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1062.790000</v>
+        <v>-1062.79</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>40113.997979</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.142777</v>
+        <v>11.142777000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1988.470000</v>
+        <v>1988.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1839.810000</v>
+        <v>-1839.81</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>40125.283453</v>
+        <v>40125.283452999996</v>
       </c>
       <c r="BT6" s="1">
-        <v>11.145912</v>
+        <v>11.145911999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2375.740000</v>
+        <v>2375.7399999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2740.980000</v>
+        <v>-2740.98</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>40136.069455</v>
+        <v>40136.069454999997</v>
       </c>
       <c r="BY6" s="1">
         <v>11.148908</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2859.280000</v>
+        <v>2859.28</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3721.220000</v>
+        <v>-3721.22</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>40147.782480</v>
+        <v>40147.782480000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.152162</v>
+        <v>11.152162000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4286.800000</v>
+        <v>4286.8</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6107.380000</v>
+        <v>-6107.38</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>39975.594818</v>
+        <v>39975.594817999998</v>
       </c>
       <c r="B7" s="1">
-        <v>11.104332</v>
+        <v>11.104331999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1252.180000</v>
+        <v>1252.18</v>
       </c>
       <c r="D7" s="1">
-        <v>-285.267000</v>
+        <v>-285.267</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>39986.668501</v>
@@ -1781,241 +2197,241 @@
         <v>11.107408</v>
       </c>
       <c r="H7" s="1">
-        <v>1274.010000</v>
+        <v>1274.01</v>
       </c>
       <c r="I7" s="1">
-        <v>-249.223000</v>
+        <v>-249.22300000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>39997.131606</v>
+        <v>39997.131606000003</v>
       </c>
       <c r="L7" s="1">
-        <v>11.110314</v>
+        <v>11.110314000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1309.160000</v>
+        <v>1309.1600000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-196.113000</v>
+        <v>-196.113</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>40007.710784</v>
+        <v>40007.710784000003</v>
       </c>
       <c r="Q7" s="1">
         <v>11.113253</v>
       </c>
       <c r="R7" s="1">
-        <v>1322.080000</v>
+        <v>1322.08</v>
       </c>
       <c r="S7" s="1">
-        <v>-180.631000</v>
+        <v>-180.631</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>40018.239882</v>
+        <v>40018.239882000002</v>
       </c>
       <c r="V7" s="1">
         <v>11.116178</v>
       </c>
       <c r="W7" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.374000</v>
+        <v>-169.374</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>40028.317566</v>
+        <v>40028.317565999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.118977</v>
+        <v>11.118976999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1355.220000</v>
+        <v>1355.22</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.784000</v>
+        <v>-168.78399999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>40038.844159</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.121901</v>
+        <v>11.121900999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1368.700000</v>
+        <v>1368.7</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.848000</v>
+        <v>-178.84800000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>40049.304290</v>
+        <v>40049.30429</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.124807</v>
+        <v>11.124807000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1389.900000</v>
+        <v>1389.9</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.061000</v>
+        <v>-209.06100000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>40059.967284</v>
+        <v>40059.967283999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.127769</v>
+        <v>11.127769000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1411.850000</v>
+        <v>1411.85</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.035000</v>
+        <v>-253.035</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>40070.684869</v>
+        <v>40070.684868999997</v>
       </c>
       <c r="AU7" s="1">
         <v>11.130746</v>
       </c>
       <c r="AV7" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.169000</v>
+        <v>-313.16899999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>40081.798735</v>
+        <v>40081.798734999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.133833</v>
+        <v>11.133832999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1455.860000</v>
+        <v>1455.86</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.431000</v>
+        <v>-365.43099999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>40092.358024</v>
+        <v>40092.358024000001</v>
       </c>
       <c r="BE7" s="1">
         <v>11.136766</v>
       </c>
       <c r="BF7" s="1">
-        <v>1540.850000</v>
+        <v>1540.85</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.869000</v>
+        <v>-614.86900000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>40103.124186</v>
+        <v>40103.124186000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>11.139757</v>
+        <v>11.139756999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1062.780000</v>
+        <v>-1062.78</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>40114.414618</v>
+        <v>40114.414618000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>11.142893</v>
+        <v>11.142893000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1988.340000</v>
+        <v>1988.34</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1839.910000</v>
+        <v>-1839.91</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>40125.695132</v>
+        <v>40125.695132000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.146026</v>
+        <v>11.146026000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2375.420000</v>
+        <v>2375.42</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2740.680000</v>
+        <v>-2740.68</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>40136.489246</v>
+        <v>40136.489245999997</v>
       </c>
       <c r="BY7" s="1">
         <v>11.149025</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2858.770000</v>
+        <v>2858.77</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3721.240000</v>
+        <v>-3721.24</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>40148.320142</v>
+        <v>40148.320141999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.152311</v>
+        <v>11.152310999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>4284.630000</v>
+        <v>4284.63</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6085.680000</v>
+        <v>-6085.68</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>39976.259457</v>
       </c>
@@ -2023,238 +2439,238 @@
         <v>11.104517</v>
       </c>
       <c r="C8" s="1">
-        <v>1251.730000</v>
+        <v>1251.73</v>
       </c>
       <c r="D8" s="1">
-        <v>-285.076000</v>
+        <v>-285.07600000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>39987.040035</v>
+        <v>39987.040034999998</v>
       </c>
       <c r="G8" s="1">
-        <v>11.107511</v>
+        <v>11.107511000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.840000</v>
+        <v>1273.8399999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-249.188000</v>
+        <v>-249.18799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>39997.502613</v>
+        <v>39997.502612999997</v>
       </c>
       <c r="L8" s="1">
         <v>11.110417</v>
       </c>
       <c r="M8" s="1">
-        <v>1309.300000</v>
+        <v>1309.3</v>
       </c>
       <c r="N8" s="1">
-        <v>-196.137000</v>
+        <v>-196.137</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>40008.060494</v>
+        <v>40008.060493999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>11.113350</v>
+        <v>11.113350000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1322.080000</v>
+        <v>1322.08</v>
       </c>
       <c r="S8" s="1">
-        <v>-180.663000</v>
+        <v>-180.66300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>40018.584073</v>
+        <v>40018.584072999998</v>
       </c>
       <c r="V8" s="1">
         <v>11.116273</v>
       </c>
       <c r="W8" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.337000</v>
+        <v>-169.33699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>40028.665635</v>
+        <v>40028.665634999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>11.119074</v>
+        <v>11.119073999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1355.050000</v>
+        <v>1355.05</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.615000</v>
+        <v>-168.61500000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>40039.188879</v>
+        <v>40039.188879000001</v>
       </c>
       <c r="AF8" s="1">
         <v>11.121997</v>
       </c>
       <c r="AG8" s="1">
-        <v>1368.690000</v>
+        <v>1368.69</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.846000</v>
+        <v>-178.846</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>40049.737296</v>
+        <v>40049.737295999999</v>
       </c>
       <c r="AK8" s="1">
         <v>11.124927</v>
       </c>
       <c r="AL8" s="1">
-        <v>1389.920000</v>
+        <v>1389.92</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.064000</v>
+        <v>-209.06399999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>40060.395951</v>
+        <v>40060.395950999999</v>
       </c>
       <c r="AP8" s="1">
         <v>11.127888</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.048000</v>
+        <v>-253.048</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>40070.987397</v>
+        <v>40070.987396999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.130830</v>
+        <v>11.13083</v>
       </c>
       <c r="AV8" s="1">
-        <v>1436.500000</v>
+        <v>1436.5</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.171000</v>
+        <v>-313.17099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>40082.101255</v>
+        <v>40082.101255000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.133917</v>
       </c>
       <c r="BA8" s="1">
-        <v>1455.830000</v>
+        <v>1455.83</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.496000</v>
+        <v>-365.49599999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>40092.715639</v>
+        <v>40092.715639000002</v>
       </c>
       <c r="BE8" s="1">
         <v>11.136865</v>
       </c>
       <c r="BF8" s="1">
-        <v>1540.820000</v>
+        <v>1540.82</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.850000</v>
+        <v>-614.85</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>40103.507097</v>
+        <v>40103.507097000002</v>
       </c>
       <c r="BJ8" s="1">
         <v>11.139863</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.600000</v>
+        <v>1694.6</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1062.730000</v>
+        <v>-1062.73</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>40114.815418</v>
+        <v>40114.815417999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.143004</v>
+        <v>11.143003999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1988.390000</v>
+        <v>1988.39</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1839.890000</v>
+        <v>-1839.89</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>40126.114252</v>
+        <v>40126.114251999999</v>
       </c>
       <c r="BT8" s="1">
         <v>11.146143</v>
       </c>
       <c r="BU8" s="1">
-        <v>2375.280000</v>
+        <v>2375.2800000000002</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2741.000000</v>
+        <v>-2741</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>40136.916125</v>
+        <v>40136.916125000003</v>
       </c>
       <c r="BY8" s="1">
         <v>11.149143</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2858.790000</v>
+        <v>2858.79</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3720.820000</v>
+        <v>-3720.82</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>40148.863759</v>
@@ -2263,120 +2679,120 @@
         <v>11.152462</v>
       </c>
       <c r="CE8" s="1">
-        <v>4271.780000</v>
+        <v>4271.78</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6104.660000</v>
+        <v>-6104.66</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>39976.629008</v>
+        <v>39976.629008000004</v>
       </c>
       <c r="B9" s="1">
         <v>11.104619</v>
       </c>
       <c r="C9" s="1">
-        <v>1251.820000</v>
+        <v>1251.82</v>
       </c>
       <c r="D9" s="1">
-        <v>-285.193000</v>
+        <v>-285.19299999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>39987.387698</v>
+        <v>39987.387697999999</v>
       </c>
       <c r="G9" s="1">
-        <v>11.107608</v>
+        <v>11.107608000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1274.740000</v>
+        <v>1274.74</v>
       </c>
       <c r="I9" s="1">
-        <v>-249.841000</v>
+        <v>-249.84100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>39997.849813</v>
+        <v>39997.849813000001</v>
       </c>
       <c r="L9" s="1">
         <v>11.110514</v>
       </c>
       <c r="M9" s="1">
-        <v>1309.550000</v>
+        <v>1309.55</v>
       </c>
       <c r="N9" s="1">
-        <v>-196.238000</v>
+        <v>-196.238</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>40008.407656</v>
+        <v>40008.407656000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.113447</v>
+        <v>11.113447000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1322.070000</v>
+        <v>1322.07</v>
       </c>
       <c r="S9" s="1">
-        <v>-180.645000</v>
+        <v>-180.64500000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>40018.931801</v>
+        <v>40018.931800999999</v>
       </c>
       <c r="V9" s="1">
-        <v>11.116370</v>
+        <v>11.11637</v>
       </c>
       <c r="W9" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.234000</v>
+        <v>-169.23400000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>40029.091323</v>
+        <v>40029.091323000001</v>
       </c>
       <c r="AA9" s="1">
         <v>11.119192</v>
       </c>
       <c r="AB9" s="1">
-        <v>1355.240000</v>
+        <v>1355.24</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.155000</v>
+        <v>-168.155</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>40039.613454</v>
+        <v>40039.613453999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.122115</v>
+        <v>11.122115000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1368.660000</v>
+        <v>1368.66</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.818000</v>
+        <v>-178.81800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>40050.005631</v>
@@ -2385,225 +2801,225 @@
         <v>11.125002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1389.910000</v>
+        <v>1389.91</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.035000</v>
+        <v>-209.035</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>40060.684499</v>
+        <v>40060.684499000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>11.127968</v>
+        <v>11.127967999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.041000</v>
+        <v>-253.041</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>40071.350964</v>
+        <v>40071.350963999997</v>
       </c>
       <c r="AU9" s="1">
         <v>11.130931</v>
       </c>
       <c r="AV9" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.173000</v>
+        <v>-313.173</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>40082.527582</v>
+        <v>40082.527582000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.134035</v>
+        <v>11.134035000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1455.850000</v>
+        <v>1455.85</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.511000</v>
+        <v>-365.51100000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>40093.076408</v>
+        <v>40093.076408000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.136966</v>
+        <v>11.136965999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1540.820000</v>
+        <v>1540.82</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.851000</v>
+        <v>-614.851</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>40104.269448</v>
+        <v>40104.269447999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.140075</v>
       </c>
       <c r="BK9" s="1">
-        <v>1694.630000</v>
+        <v>1694.63</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1062.680000</v>
+        <v>-1062.68</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>40115.248889</v>
+        <v>40115.248889000002</v>
       </c>
       <c r="BO9" s="1">
         <v>11.143125</v>
       </c>
       <c r="BP9" s="1">
-        <v>1988.230000</v>
+        <v>1988.23</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1839.830000</v>
+        <v>-1839.83</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>40126.548748</v>
+        <v>40126.548748000001</v>
       </c>
       <c r="BT9" s="1">
         <v>11.146264</v>
       </c>
       <c r="BU9" s="1">
-        <v>2374.680000</v>
+        <v>2374.6799999999998</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2740.770000</v>
+        <v>-2740.77</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>40137.330321</v>
+        <v>40137.330321000001</v>
       </c>
       <c r="BY9" s="1">
         <v>11.149258</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2859.030000</v>
+        <v>2859.03</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3721.430000</v>
+        <v>-3721.43</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>40149.403441</v>
+        <v>40149.403441000002</v>
       </c>
       <c r="CD9" s="1">
         <v>11.152612</v>
       </c>
       <c r="CE9" s="1">
-        <v>4293.860000</v>
+        <v>4293.8599999999997</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6095.180000</v>
+        <v>-6095.18</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>39976.967249</v>
+        <v>39976.967249000001</v>
       </c>
       <c r="B10" s="1">
         <v>11.104713</v>
       </c>
       <c r="C10" s="1">
-        <v>1251.730000</v>
+        <v>1251.73</v>
       </c>
       <c r="D10" s="1">
-        <v>-285.328000</v>
+        <v>-285.32799999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>39987.732445</v>
+        <v>39987.732445000001</v>
       </c>
       <c r="G10" s="1">
-        <v>11.107703</v>
+        <v>11.107703000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1274.450000</v>
+        <v>1274.45</v>
       </c>
       <c r="I10" s="1">
-        <v>-249.839000</v>
+        <v>-249.839</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>39998.196517</v>
+        <v>39998.196516999997</v>
       </c>
       <c r="L10" s="1">
-        <v>11.110610</v>
+        <v>11.110609999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1309.180000</v>
+        <v>1309.18</v>
       </c>
       <c r="N10" s="1">
-        <v>-195.840000</v>
+        <v>-195.84</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>40008.821318</v>
+        <v>40008.821318000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.113561</v>
+        <v>11.113561000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1322.050000</v>
+        <v>1322.05</v>
       </c>
       <c r="S10" s="1">
-        <v>-180.657000</v>
+        <v>-180.65700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>40019.356380</v>
+        <v>40019.356379999997</v>
       </c>
       <c r="V10" s="1">
         <v>11.116488</v>
       </c>
       <c r="W10" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="X10" s="1">
-        <v>-169.315000</v>
+        <v>-169.315</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>40029.377515</v>
@@ -2612,163 +3028,163 @@
         <v>11.119272</v>
       </c>
       <c r="AB10" s="1">
-        <v>1354.990000</v>
+        <v>1354.99</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.690000</v>
+        <v>-168.69</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>40039.894224</v>
+        <v>40039.894224000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.122193</v>
+        <v>11.122192999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1368.650000</v>
+        <v>1368.65</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.865000</v>
+        <v>-178.86500000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>40050.355808</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.125099</v>
+        <v>11.125099000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1389.940000</v>
+        <v>1389.94</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.014000</v>
+        <v>-209.01400000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>40061.046578</v>
+        <v>40061.046578000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.128068</v>
+        <v>11.128068000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1411.830000</v>
+        <v>1411.83</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.054000</v>
+        <v>-253.054</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>40071.716057</v>
+        <v>40071.716056999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>11.131032</v>
+        <v>11.131031999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.207000</v>
+        <v>-313.20699999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>40083.011413</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11.134170</v>
+        <v>11.134169999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1455.810000</v>
+        <v>1455.81</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.460000</v>
+        <v>-365.46</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>40093.804855</v>
+        <v>40093.804855000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.137168</v>
+        <v>11.137168000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1540.780000</v>
+        <v>1540.78</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.845000</v>
+        <v>-614.84500000000003</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>40104.644919</v>
+        <v>40104.644918999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.140179</v>
       </c>
       <c r="BK10" s="1">
-        <v>1694.670000</v>
+        <v>1694.67</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1062.700000</v>
+        <v>-1062.7</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>40115.632298</v>
+        <v>40115.632297999997</v>
       </c>
       <c r="BO10" s="1">
         <v>11.143231</v>
       </c>
       <c r="BP10" s="1">
-        <v>1988.260000</v>
+        <v>1988.26</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1839.690000</v>
+        <v>-1839.69</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>40126.977317</v>
+        <v>40126.977316999997</v>
       </c>
       <c r="BT10" s="1">
         <v>11.146383</v>
       </c>
       <c r="BU10" s="1">
-        <v>2374.600000</v>
+        <v>2374.6</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2741.040000</v>
+        <v>-2741.04</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>40137.789085</v>
+        <v>40137.789084999997</v>
       </c>
       <c r="BY10" s="1">
         <v>11.149386</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2859.140000</v>
+        <v>2859.14</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3721.100000</v>
+        <v>-3721.1</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>40150.256555</v>
@@ -2777,437 +3193,437 @@
         <v>11.152849</v>
       </c>
       <c r="CE10" s="1">
-        <v>4277.720000</v>
+        <v>4277.72</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6107.310000</v>
+        <v>-6107.31</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>39977.315968</v>
+        <v>39977.315968000003</v>
       </c>
       <c r="B11" s="1">
-        <v>11.104810</v>
+        <v>11.104810000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1252.130000</v>
+        <v>1252.1300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-285.448000</v>
+        <v>-285.44799999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>39988.159474</v>
       </c>
       <c r="G11" s="1">
-        <v>11.107822</v>
+        <v>11.107822000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1275.240000</v>
+        <v>1275.24</v>
       </c>
       <c r="I11" s="1">
-        <v>-249.658000</v>
+        <v>-249.65799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>39998.626084</v>
+        <v>39998.626084000003</v>
       </c>
       <c r="L11" s="1">
-        <v>11.110729</v>
+        <v>11.110728999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1309.420000</v>
+        <v>1309.42</v>
       </c>
       <c r="N11" s="1">
-        <v>-196.126000</v>
+        <v>-196.126</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>40009.102550</v>
+        <v>40009.102550000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>11.113640</v>
+        <v>11.11364</v>
       </c>
       <c r="R11" s="1">
-        <v>1322.010000</v>
+        <v>1322.01</v>
       </c>
       <c r="S11" s="1">
-        <v>-180.630000</v>
+        <v>-180.63</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>40019.633609</v>
+        <v>40019.633608999997</v>
       </c>
       <c r="V11" s="1">
         <v>11.116565</v>
       </c>
       <c r="W11" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="X11" s="1">
-        <v>-169.359000</v>
+        <v>-169.35900000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>40029.725211</v>
+        <v>40029.725210999997</v>
       </c>
       <c r="AA11" s="1">
         <v>11.119368</v>
       </c>
       <c r="AB11" s="1">
-        <v>1354.920000</v>
+        <v>1354.92</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.555000</v>
+        <v>-168.55500000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>40040.237421</v>
+        <v>40040.237420999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.122288</v>
+        <v>11.122287999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.865000</v>
+        <v>-178.86500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>40050.701519</v>
+        <v>40050.701519000002</v>
       </c>
       <c r="AK11" s="1">
         <v>11.125195</v>
       </c>
       <c r="AL11" s="1">
-        <v>1389.930000</v>
+        <v>1389.93</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.053000</v>
+        <v>-209.053</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>40061.407170</v>
+        <v>40061.407169999999</v>
       </c>
       <c r="AP11" s="1">
         <v>11.128169</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.045000</v>
+        <v>-253.04499999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>40072.445635</v>
+        <v>40072.445634999996</v>
       </c>
       <c r="AU11" s="1">
         <v>11.131235</v>
       </c>
       <c r="AV11" s="1">
-        <v>1436.490000</v>
+        <v>1436.49</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.227000</v>
+        <v>-313.22699999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>40083.536179</v>
+        <v>40083.536179000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>11.134316</v>
       </c>
       <c r="BA11" s="1">
-        <v>1455.830000</v>
+        <v>1455.83</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.448000</v>
+        <v>-365.44799999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>40094.180358</v>
+        <v>40094.180357999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.137272</v>
+        <v>11.137271999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1540.770000</v>
+        <v>1540.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.867000</v>
+        <v>-614.86699999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>40105.020888</v>
+        <v>40105.020887999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.140284</v>
+        <v>11.140283999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.610000</v>
+        <v>1694.61</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1062.670000</v>
+        <v>-1062.67</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>40116.053434</v>
+        <v>40116.053434000001</v>
       </c>
       <c r="BO11" s="1">
         <v>11.143348</v>
       </c>
       <c r="BP11" s="1">
-        <v>1988.280000</v>
+        <v>1988.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1839.910000</v>
+        <v>-1839.91</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>40127.710379</v>
+        <v>40127.710378999996</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.146586</v>
+        <v>11.146585999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>2374.300000</v>
+        <v>2374.3000000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2740.390000</v>
+        <v>-2740.39</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>40138.549483</v>
+        <v>40138.549483000003</v>
       </c>
       <c r="BY11" s="1">
         <v>11.149597</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2858.570000</v>
+        <v>2858.57</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3720.550000</v>
+        <v>-3720.55</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>40150.482203</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.152912</v>
+        <v>11.152912000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4275.210000</v>
+        <v>4275.21</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6104.860000</v>
+        <v>-6104.86</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>39977.739555</v>
       </c>
       <c r="B12" s="1">
-        <v>11.104928</v>
+        <v>11.104927999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1251.990000</v>
+        <v>1251.99</v>
       </c>
       <c r="D12" s="1">
-        <v>-285.184000</v>
+        <v>-285.18400000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>39988.424865</v>
+        <v>39988.424865000001</v>
       </c>
       <c r="G12" s="1">
         <v>11.107896</v>
       </c>
       <c r="H12" s="1">
-        <v>1274.350000</v>
+        <v>1274.3499999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-249.288000</v>
+        <v>-249.28800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>39998.898355</v>
+        <v>39998.898354999998</v>
       </c>
       <c r="L12" s="1">
-        <v>11.110805</v>
+        <v>11.110804999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1309.700000</v>
+        <v>1309.7</v>
       </c>
       <c r="N12" s="1">
-        <v>-195.979000</v>
+        <v>-195.97900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>40009.454213</v>
+        <v>40009.454212999997</v>
       </c>
       <c r="Q12" s="1">
         <v>11.113737</v>
       </c>
       <c r="R12" s="1">
-        <v>1322.030000</v>
+        <v>1322.03</v>
       </c>
       <c r="S12" s="1">
-        <v>-180.594000</v>
+        <v>-180.59399999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>40019.981305</v>
+        <v>40019.981305000001</v>
       </c>
       <c r="V12" s="1">
-        <v>11.116661</v>
+        <v>11.116661000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="X12" s="1">
-        <v>-169.320000</v>
+        <v>-169.32</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>40030.074890</v>
+        <v>40030.074890000004</v>
       </c>
       <c r="AA12" s="1">
         <v>11.119465</v>
       </c>
       <c r="AB12" s="1">
-        <v>1355.070000</v>
+        <v>1355.07</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.641000</v>
+        <v>-168.64099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>40040.580191</v>
+        <v>40040.580191000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.122383</v>
+        <v>11.122382999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1368.670000</v>
+        <v>1368.67</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.886000</v>
+        <v>-178.886</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>40051.399391</v>
+        <v>40051.399390999999</v>
       </c>
       <c r="AK12" s="1">
         <v>11.125389</v>
       </c>
       <c r="AL12" s="1">
-        <v>1389.910000</v>
+        <v>1389.91</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.040000</v>
+        <v>-209.04</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>40062.132817</v>
+        <v>40062.132816999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.128370</v>
+        <v>11.12837</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.040000</v>
+        <v>-253.04</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>40072.835986</v>
+        <v>40072.835985999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.131343</v>
+        <v>11.131342999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.171000</v>
+        <v>-313.17099999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>40083.894787</v>
+        <v>40083.894786999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.134415</v>
+        <v>11.134415000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1455.840000</v>
+        <v>1455.84</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.430000</v>
+        <v>-365.43</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>40094.543157</v>
@@ -3216,28 +3632,28 @@
         <v>11.137373</v>
       </c>
       <c r="BF12" s="1">
-        <v>1540.840000</v>
+        <v>1540.84</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.855000</v>
+        <v>-614.85500000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>40105.731681</v>
+        <v>40105.731680999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.140481</v>
+        <v>11.140480999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1694.650000</v>
+        <v>1694.65</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1062.630000</v>
+        <v>-1062.6300000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>40116.769128</v>
@@ -3246,135 +3662,135 @@
         <v>11.143547</v>
       </c>
       <c r="BP12" s="1">
-        <v>1988.240000</v>
+        <v>1988.24</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1839.810000</v>
+        <v>-1839.81</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>40127.821513</v>
+        <v>40127.821513000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.146617</v>
+        <v>11.146617000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2374.080000</v>
+        <v>2374.08</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2740.580000</v>
+        <v>-2740.58</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>40138.670011</v>
+        <v>40138.670011000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>11.149631</v>
+        <v>11.149630999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2858.000000</v>
+        <v>2858</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3721.330000</v>
+        <v>-3721.33</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>40151.001515</v>
+        <v>40151.001515000004</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.153056</v>
+        <v>11.153055999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4291.550000</v>
+        <v>4291.55</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6104.050000</v>
+        <v>-6104.05</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>39978.020753</v>
+        <v>39978.020752999997</v>
       </c>
       <c r="B13" s="1">
-        <v>11.105006</v>
+        <v>11.105005999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1252.280000</v>
+        <v>1252.28</v>
       </c>
       <c r="D13" s="1">
-        <v>-284.814000</v>
+        <v>-284.81400000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>39988.769061</v>
+        <v>39988.769060999999</v>
       </c>
       <c r="G13" s="1">
         <v>11.107991</v>
       </c>
       <c r="H13" s="1">
-        <v>1274.570000</v>
+        <v>1274.57</v>
       </c>
       <c r="I13" s="1">
-        <v>-249.289000</v>
+        <v>-249.28899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>39999.246052</v>
+        <v>39999.246052000002</v>
       </c>
       <c r="L13" s="1">
-        <v>11.110902</v>
+        <v>11.110901999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1309.040000</v>
+        <v>1309.04</v>
       </c>
       <c r="N13" s="1">
-        <v>-195.682000</v>
+        <v>-195.68199999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>40009.802404</v>
+        <v>40009.802404000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.113834</v>
+        <v>11.113834000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1322.140000</v>
+        <v>1322.14</v>
       </c>
       <c r="S13" s="1">
-        <v>-180.631000</v>
+        <v>-180.631</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>40020.325032</v>
+        <v>40020.325032000001</v>
       </c>
       <c r="V13" s="1">
         <v>11.116757</v>
       </c>
       <c r="W13" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.350000</v>
+        <v>-169.35</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>40030.772266</v>
@@ -3383,240 +3799,240 @@
         <v>11.119659</v>
       </c>
       <c r="AB13" s="1">
-        <v>1355.060000</v>
+        <v>1355.06</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.701000</v>
+        <v>-168.70099999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>40041.267612</v>
+        <v>40041.267612000003</v>
       </c>
       <c r="AF13" s="1">
         <v>11.122574</v>
       </c>
       <c r="AG13" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.846000</v>
+        <v>-178.846</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>40051.748573</v>
+        <v>40051.748572999997</v>
       </c>
       <c r="AK13" s="1">
         <v>11.125486</v>
       </c>
       <c r="AL13" s="1">
-        <v>1389.920000</v>
+        <v>1389.92</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.038000</v>
+        <v>-209.03800000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>40062.513285</v>
+        <v>40062.513285000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>11.128476</v>
+        <v>11.128475999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.025000</v>
+        <v>-253.02500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>40073.202065</v>
+        <v>40073.202064999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.131445</v>
+        <v>11.131444999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1436.500000</v>
+        <v>1436.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.188000</v>
+        <v>-313.18799999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>40084.565874</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11.134602</v>
+        <v>11.134601999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1455.840000</v>
+        <v>1455.84</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.469000</v>
+        <v>-365.46899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>40095.222422</v>
+        <v>40095.222421999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>11.137562</v>
+        <v>11.137562000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1540.800000</v>
+        <v>1540.8</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.816000</v>
+        <v>-614.81600000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>40106.171110</v>
+        <v>40106.171110000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.140603</v>
       </c>
       <c r="BK13" s="1">
-        <v>1694.570000</v>
+        <v>1694.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1062.710000</v>
+        <v>-1062.71</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>40116.890157</v>
+        <v>40116.890157000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.143581</v>
+        <v>11.143580999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1988.230000</v>
+        <v>1988.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1839.610000</v>
+        <v>-1839.61</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>40128.257465</v>
+        <v>40128.257465000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>11.146738</v>
+        <v>11.146737999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2373.680000</v>
+        <v>2373.6799999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2740.330000</v>
+        <v>-2740.33</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>40139.096075</v>
+        <v>40139.096075000001</v>
       </c>
       <c r="BY13" s="1">
         <v>11.149749</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2858.440000</v>
+        <v>2858.44</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3720.790000</v>
+        <v>-3720.79</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>40151.520332</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.153200</v>
+        <v>11.1532</v>
       </c>
       <c r="CE13" s="1">
-        <v>4289.660000</v>
+        <v>4289.66</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6086.000000</v>
+        <v>-6086</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>39978.361008</v>
       </c>
       <c r="B14" s="1">
-        <v>11.105100</v>
+        <v>11.1051</v>
       </c>
       <c r="C14" s="1">
-        <v>1251.770000</v>
+        <v>1251.77</v>
       </c>
       <c r="D14" s="1">
-        <v>-285.204000</v>
+        <v>-285.20400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>39989.112784</v>
+        <v>39989.112783999997</v>
       </c>
       <c r="G14" s="1">
-        <v>11.108087</v>
+        <v>11.108086999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1275.030000</v>
+        <v>1275.03</v>
       </c>
       <c r="I14" s="1">
-        <v>-249.458000</v>
+        <v>-249.458</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>39999.593746</v>
+        <v>39999.593745999999</v>
       </c>
       <c r="L14" s="1">
         <v>11.110998</v>
       </c>
       <c r="M14" s="1">
-        <v>1309.400000</v>
+        <v>1309.4000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-195.862000</v>
+        <v>-195.86199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>40010.499319</v>
+        <v>40010.499319000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.114028</v>
+        <v>11.114027999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1322.130000</v>
+        <v>1322.13</v>
       </c>
       <c r="S14" s="1">
-        <v>-180.728000</v>
+        <v>-180.72800000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>40021.007564</v>
@@ -3625,210 +4041,210 @@
         <v>11.116947</v>
       </c>
       <c r="W14" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.240000</v>
+        <v>-169.24</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>40031.118970</v>
+        <v>40031.118970000003</v>
       </c>
       <c r="AA14" s="1">
         <v>11.119755</v>
       </c>
       <c r="AB14" s="1">
-        <v>1354.990000</v>
+        <v>1354.99</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.805000</v>
+        <v>-168.80500000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>40041.611339</v>
+        <v>40041.611339000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.122670</v>
+        <v>11.122669999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.845000</v>
+        <v>-178.845</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>40052.096270</v>
+        <v>40052.096270000002</v>
       </c>
       <c r="AK14" s="1">
         <v>11.125582</v>
       </c>
       <c r="AL14" s="1">
-        <v>1389.950000</v>
+        <v>1389.95</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.055000</v>
+        <v>-209.05500000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>40062.889242</v>
+        <v>40062.889241999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>11.128580</v>
+        <v>11.128579999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1411.850000</v>
+        <v>1411.85</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.025000</v>
+        <v>-253.02500000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>40073.882081</v>
+        <v>40073.882081000003</v>
       </c>
       <c r="AU14" s="1">
         <v>11.131634</v>
       </c>
       <c r="AV14" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.220000</v>
+        <v>-313.22000000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>40085.003876</v>
+        <v>40085.003876000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.134723</v>
+        <v>11.134722999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.462000</v>
+        <v>-365.46199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>40095.660389</v>
+        <v>40095.660388999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>11.137683</v>
+        <v>11.137683000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1540.820000</v>
+        <v>1540.82</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.802000</v>
+        <v>-614.80200000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>40106.577365</v>
+        <v>40106.577364999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.140716</v>
+        <v>11.140715999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1694.580000</v>
+        <v>1694.58</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1062.670000</v>
+        <v>-1062.67</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>40117.299385</v>
+        <v>40117.299384999998</v>
       </c>
       <c r="BO14" s="1">
         <v>11.143694</v>
       </c>
       <c r="BP14" s="1">
-        <v>1988.330000</v>
+        <v>1988.33</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1839.760000</v>
+        <v>-1839.76</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>40128.687528</v>
+        <v>40128.687528000002</v>
       </c>
       <c r="BT14" s="1">
         <v>11.146858</v>
       </c>
       <c r="BU14" s="1">
-        <v>2373.400000</v>
+        <v>2373.4</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2740.340000</v>
+        <v>-2740.34</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>40139.511722</v>
+        <v>40139.511722000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.149864</v>
+        <v>11.149864000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2858.130000</v>
+        <v>2858.13</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3720.550000</v>
+        <v>-3720.55</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>40152.038682</v>
+        <v>40152.038681999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.153344</v>
+        <v>11.153344000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4271.670000</v>
+        <v>4271.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6088.540000</v>
+        <v>-6088.54</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>39978.704271</v>
+        <v>39978.704271000002</v>
       </c>
       <c r="B15" s="1">
-        <v>11.105196</v>
+        <v>11.105195999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1252.120000</v>
+        <v>1252.1199999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-285.566000</v>
+        <v>-285.56599999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>39989.803216</v>
@@ -3837,193 +4253,193 @@
         <v>11.108279</v>
       </c>
       <c r="H15" s="1">
-        <v>1274.410000</v>
+        <v>1274.4100000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-248.925000</v>
+        <v>-248.92500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>40000.286659</v>
+        <v>40000.286658999998</v>
       </c>
       <c r="L15" s="1">
         <v>11.111191</v>
       </c>
       <c r="M15" s="1">
-        <v>1309.270000</v>
+        <v>1309.27</v>
       </c>
       <c r="N15" s="1">
-        <v>-196.001000</v>
+        <v>-196.001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>40010.850451</v>
+        <v>40010.850450999998</v>
       </c>
       <c r="Q15" s="1">
         <v>11.114125</v>
       </c>
       <c r="R15" s="1">
-        <v>1322.030000</v>
+        <v>1322.03</v>
       </c>
       <c r="S15" s="1">
-        <v>-180.696000</v>
+        <v>-180.696</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>40021.352247</v>
+        <v>40021.352247000003</v>
       </c>
       <c r="V15" s="1">
         <v>11.117042</v>
       </c>
       <c r="W15" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="X15" s="1">
-        <v>-169.214000</v>
+        <v>-169.214</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>40031.469641</v>
+        <v>40031.469641000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.119853</v>
+        <v>11.119853000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1355.100000</v>
+        <v>1355.1</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.584000</v>
+        <v>-168.584</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>40041.956059</v>
+        <v>40041.956058999996</v>
       </c>
       <c r="AF15" s="1">
         <v>11.122766</v>
       </c>
       <c r="AG15" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.802000</v>
+        <v>-178.80199999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>40052.758428</v>
+        <v>40052.758428000001</v>
       </c>
       <c r="AK15" s="1">
         <v>11.125766</v>
       </c>
       <c r="AL15" s="1">
-        <v>1389.930000</v>
+        <v>1389.93</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.030000</v>
+        <v>-209.03</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>40063.476974</v>
+        <v>40063.476973999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>11.128744</v>
+        <v>11.128743999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.093000</v>
+        <v>-253.09299999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>40074.297696</v>
+        <v>40074.297696000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.131749</v>
+        <v>11.131748999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.196000</v>
+        <v>-313.19600000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>40085.363937</v>
+        <v>40085.363937000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.134823</v>
+        <v>11.134823000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1455.830000</v>
+        <v>1455.83</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.444000</v>
+        <v>-365.44400000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>40096.021972</v>
+        <v>40096.021972000002</v>
       </c>
       <c r="BE15" s="1">
         <v>11.137784</v>
       </c>
       <c r="BF15" s="1">
-        <v>1540.770000</v>
+        <v>1540.77</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.828000</v>
+        <v>-614.82799999999997</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>40106.949861</v>
+        <v>40106.949861000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.140819</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.580000</v>
+        <v>1694.58</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1062.660000</v>
+        <v>-1062.6600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>40117.695656</v>
+        <v>40117.695656000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.143804</v>
+        <v>11.143803999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1988.280000</v>
+        <v>1988.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1839.690000</v>
+        <v>-1839.69</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>40129.112106</v>
@@ -4032,255 +4448,255 @@
         <v>11.146976</v>
       </c>
       <c r="BU15" s="1">
-        <v>2373.350000</v>
+        <v>2373.35</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2740.020000</v>
+        <v>-2740.02</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>40139.965530</v>
+        <v>40139.965530000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.149990</v>
+        <v>11.149990000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2857.930000</v>
+        <v>2857.93</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3720.760000</v>
+        <v>-3720.76</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>40152.555512</v>
+        <v>40152.555511999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.153488</v>
+        <v>11.153487999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4278.060000</v>
+        <v>4278.0600000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6086.170000</v>
+        <v>-6086.17</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>39979.386751</v>
+        <v>39979.386750999998</v>
       </c>
       <c r="B16" s="1">
         <v>11.105385</v>
       </c>
       <c r="C16" s="1">
-        <v>1252.300000</v>
+        <v>1252.3</v>
       </c>
       <c r="D16" s="1">
-        <v>-285.611000</v>
+        <v>-285.61099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>39990.148927</v>
+        <v>39990.148927000002</v>
       </c>
       <c r="G16" s="1">
-        <v>11.108375</v>
+        <v>11.108375000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.320000</v>
+        <v>1274.32</v>
       </c>
       <c r="I16" s="1">
-        <v>-248.368000</v>
+        <v>-248.36799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>40000.631906</v>
+        <v>40000.631906000002</v>
       </c>
       <c r="L16" s="1">
-        <v>11.111287</v>
+        <v>11.111287000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1309.300000</v>
+        <v>1309.3</v>
       </c>
       <c r="N16" s="1">
-        <v>-196.364000</v>
+        <v>-196.364</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>40011.196659</v>
+        <v>40011.196659000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>11.114221</v>
+        <v>11.114221000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1322.080000</v>
+        <v>1322.08</v>
       </c>
       <c r="S16" s="1">
-        <v>-180.653000</v>
+        <v>-180.65299999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>40021.694981</v>
+        <v>40021.694981000001</v>
       </c>
       <c r="V16" s="1">
         <v>11.117137</v>
       </c>
       <c r="W16" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="X16" s="1">
-        <v>-169.260000</v>
+        <v>-169.26</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>40032.133287</v>
+        <v>40032.133286999997</v>
       </c>
       <c r="AA16" s="1">
         <v>11.120037</v>
       </c>
       <c r="AB16" s="1">
-        <v>1355.160000</v>
+        <v>1355.16</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.617000</v>
+        <v>-168.61699999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>40042.609322</v>
+        <v>40042.609321999997</v>
       </c>
       <c r="AF16" s="1">
         <v>11.122947</v>
       </c>
       <c r="AG16" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.876000</v>
+        <v>-178.876</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>40053.142364</v>
+        <v>40053.142363999999</v>
       </c>
       <c r="AK16" s="1">
         <v>11.125873</v>
       </c>
       <c r="AL16" s="1">
-        <v>1389.920000</v>
+        <v>1389.92</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.070000</v>
+        <v>-209.07</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>40063.600515</v>
+        <v>40063.600514999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>11.128778</v>
+        <v>11.128778000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.027000</v>
+        <v>-253.02699999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>40074.662255</v>
+        <v>40074.662255000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.131851</v>
+        <v>11.131850999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1436.470000</v>
+        <v>1436.47</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.163000</v>
+        <v>-313.16300000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>40085.722050</v>
+        <v>40085.722049999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11.134923</v>
+        <v>11.134923000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.419000</v>
+        <v>-365.41899999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>40096.380580</v>
+        <v>40096.380579999997</v>
       </c>
       <c r="BE16" s="1">
         <v>11.137883</v>
       </c>
       <c r="BF16" s="1">
-        <v>1540.790000</v>
+        <v>1540.79</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.825000</v>
+        <v>-614.82500000000005</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>40107.366509</v>
+        <v>40107.366508999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.140935</v>
+        <v>11.140935000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1694.560000</v>
+        <v>1694.56</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1062.670000</v>
+        <v>-1062.67</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>40118.118774</v>
+        <v>40118.118774000002</v>
       </c>
       <c r="BO16" s="1">
         <v>11.143922</v>
       </c>
       <c r="BP16" s="1">
-        <v>1987.990000</v>
+        <v>1987.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1839.660000</v>
+        <v>-1839.66</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>40129.526759</v>
@@ -4289,724 +4705,724 @@
         <v>11.147091</v>
       </c>
       <c r="BU16" s="1">
-        <v>2372.900000</v>
+        <v>2372.9</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2740.040000</v>
+        <v>-2740.04</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>40140.414408</v>
+        <v>40140.414407999997</v>
       </c>
       <c r="BY16" s="1">
         <v>11.150115</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2858.640000</v>
+        <v>2858.64</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3720.340000</v>
+        <v>-3720.34</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>40153.110007</v>
+        <v>40153.110007000003</v>
       </c>
       <c r="CD16" s="1">
         <v>11.153642</v>
       </c>
       <c r="CE16" s="1">
-        <v>4293.080000</v>
+        <v>4293.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6091.050000</v>
+        <v>-6091.05</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>39979.727485</v>
+        <v>39979.727485000003</v>
       </c>
       <c r="B17" s="1">
-        <v>11.105480</v>
+        <v>11.10548</v>
       </c>
       <c r="C17" s="1">
-        <v>1252.010000</v>
+        <v>1252.01</v>
       </c>
       <c r="D17" s="1">
-        <v>-284.777000</v>
+        <v>-284.77699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>39990.492191</v>
+        <v>39990.492190999998</v>
       </c>
       <c r="G17" s="1">
-        <v>11.108470</v>
+        <v>11.108470000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1274.310000</v>
+        <v>1274.31</v>
       </c>
       <c r="I17" s="1">
-        <v>-249.064000</v>
+        <v>-249.06399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>40000.979606</v>
+        <v>40000.979606000001</v>
       </c>
       <c r="L17" s="1">
         <v>11.111383</v>
       </c>
       <c r="M17" s="1">
-        <v>1309.610000</v>
+        <v>1309.6099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-196.292000</v>
+        <v>-196.292</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>40011.868771</v>
+        <v>40011.868771000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.114408</v>
+        <v>11.114407999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1322.070000</v>
+        <v>1322.07</v>
       </c>
       <c r="S17" s="1">
-        <v>-180.624000</v>
+        <v>-180.624</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>40022.342260</v>
+        <v>40022.342259999998</v>
       </c>
       <c r="V17" s="1">
         <v>11.117317</v>
       </c>
       <c r="W17" s="1">
-        <v>1336.280000</v>
+        <v>1336.28</v>
       </c>
       <c r="X17" s="1">
-        <v>-169.254000</v>
+        <v>-169.25399999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>40032.515237</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.120143</v>
+        <v>11.120143000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1355.230000</v>
+        <v>1355.23</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.398000</v>
+        <v>-168.398</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>40042.983770</v>
+        <v>40042.983769999999</v>
       </c>
       <c r="AF17" s="1">
         <v>11.123051</v>
       </c>
       <c r="AG17" s="1">
-        <v>1368.700000</v>
+        <v>1368.7</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.840000</v>
+        <v>-178.84</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>40053.491021</v>
+        <v>40053.491021000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.125970</v>
+        <v>11.125970000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1389.920000</v>
+        <v>1389.92</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.022000</v>
+        <v>-209.02199999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>40063.960573</v>
+        <v>40063.960572999997</v>
       </c>
       <c r="AP17" s="1">
         <v>11.128878</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1411.840000</v>
+        <v>1411.84</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.048000</v>
+        <v>-253.048</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>40075.022882</v>
+        <v>40075.022881999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>11.131951</v>
+        <v>11.131951000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.175000</v>
+        <v>-313.17500000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>40086.149601</v>
+        <v>40086.149600999997</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.135042</v>
       </c>
       <c r="BA17" s="1">
-        <v>1455.780000</v>
+        <v>1455.78</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.465000</v>
+        <v>-365.46499999999997</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>40096.804194</v>
+        <v>40096.804193999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.138001</v>
+        <v>11.138000999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1540.790000</v>
+        <v>1540.79</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.830000</v>
+        <v>-614.83000000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>40107.727059</v>
+        <v>40107.727058999997</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.141035</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.560000</v>
+        <v>1694.56</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1062.610000</v>
+        <v>-1062.6099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>40118.514590</v>
+        <v>40118.514589999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.144032</v>
+        <v>11.144031999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1988.200000</v>
+        <v>1988.2</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1839.690000</v>
+        <v>-1839.69</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>40129.956419</v>
+        <v>40129.956419000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>11.147210</v>
+        <v>11.147209999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2372.880000</v>
+        <v>2372.88</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2739.720000</v>
+        <v>-2739.72</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>40140.835016</v>
+        <v>40140.835015999997</v>
       </c>
       <c r="BY17" s="1">
-        <v>11.150232</v>
+        <v>11.150232000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2857.810000</v>
+        <v>2857.81</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3720.240000</v>
+        <v>-3720.24</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>40153.639735</v>
+        <v>40153.639734999997</v>
       </c>
       <c r="CD17" s="1">
         <v>11.153789</v>
       </c>
       <c r="CE17" s="1">
-        <v>4276.070000</v>
+        <v>4276.07</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6085.630000</v>
+        <v>-6085.63</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>39980.070019</v>
+        <v>39980.070018999999</v>
       </c>
       <c r="B18" s="1">
         <v>11.105575</v>
       </c>
       <c r="C18" s="1">
-        <v>1251.700000</v>
+        <v>1251.7</v>
       </c>
       <c r="D18" s="1">
-        <v>-285.261000</v>
+        <v>-285.26100000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>39991.158813</v>
+        <v>39991.158813000002</v>
       </c>
       <c r="G18" s="1">
-        <v>11.108655</v>
+        <v>11.108655000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1274.710000</v>
+        <v>1274.71</v>
       </c>
       <c r="I18" s="1">
-        <v>-249.424000</v>
+        <v>-249.42400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>40001.618912</v>
+        <v>40001.618911999998</v>
       </c>
       <c r="L18" s="1">
         <v>11.111561</v>
       </c>
       <c r="M18" s="1">
-        <v>1309.270000</v>
+        <v>1309.27</v>
       </c>
       <c r="N18" s="1">
-        <v>-196.433000</v>
+        <v>-196.43299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>40012.241729</v>
+        <v>40012.241729000001</v>
       </c>
       <c r="Q18" s="1">
         <v>11.114512</v>
       </c>
       <c r="R18" s="1">
-        <v>1322.150000</v>
+        <v>1322.15</v>
       </c>
       <c r="S18" s="1">
-        <v>-180.599000</v>
+        <v>-180.59899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>40022.725705</v>
+        <v>40022.725704999997</v>
       </c>
       <c r="V18" s="1">
         <v>11.117424</v>
       </c>
       <c r="W18" s="1">
-        <v>1336.290000</v>
+        <v>1336.29</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.289000</v>
+        <v>-169.28899999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>40032.865092</v>
       </c>
       <c r="AA18" s="1">
-        <v>11.120240</v>
+        <v>11.120240000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.714000</v>
+        <v>-168.714</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>40043.330984</v>
       </c>
       <c r="AF18" s="1">
-        <v>11.123147</v>
+        <v>11.123146999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1368.710000</v>
+        <v>1368.71</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.846000</v>
+        <v>-178.846</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>40053.839706</v>
+        <v>40053.839705999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.126067</v>
+        <v>11.126067000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1389.920000</v>
+        <v>1389.92</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.030000</v>
+        <v>-209.03</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>40064.397550</v>
+        <v>40064.397550000002</v>
       </c>
       <c r="AP18" s="1">
         <v>11.128999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1411.840000</v>
+        <v>1411.84</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.036000</v>
+        <v>-253.036</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>40075.449938</v>
+        <v>40075.449937999998</v>
       </c>
       <c r="AU18" s="1">
         <v>11.132069</v>
       </c>
       <c r="AV18" s="1">
-        <v>1436.480000</v>
+        <v>1436.48</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.215000</v>
+        <v>-313.21499999999997</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>40086.439796</v>
+        <v>40086.439795999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11.135122</v>
+        <v>11.135122000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.432000</v>
+        <v>-365.43200000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>40097.102753</v>
+        <v>40097.102752999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.138084</v>
+        <v>11.138083999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1540.800000</v>
+        <v>1540.8</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.822000</v>
+        <v>-614.822</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>40108.101540</v>
+        <v>40108.101540000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.141139</v>
+        <v>11.141139000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.580000</v>
+        <v>1694.58</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1062.600000</v>
+        <v>-1062.5999999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>40118.934205</v>
+        <v>40118.934204999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>11.144148</v>
+        <v>11.144147999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1988.120000</v>
+        <v>1988.12</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1839.660000</v>
+        <v>-1839.66</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>40130.366951</v>
+        <v>40130.366951000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>11.147324</v>
+        <v>11.147323999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2372.780000</v>
+        <v>2372.7800000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2739.420000</v>
+        <v>-2739.42</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>40141.686646</v>
+        <v>40141.686646000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.150469</v>
+        <v>11.150468999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2858.740000</v>
+        <v>2858.74</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3720.270000</v>
+        <v>-3720.27</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>40154.158587</v>
+        <v>40154.158586999998</v>
       </c>
       <c r="CD18" s="1">
         <v>11.153933</v>
       </c>
       <c r="CE18" s="1">
-        <v>4272.230000</v>
+        <v>4272.2299999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6102.290000</v>
+        <v>-6102.29</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>39980.725933</v>
+        <v>39980.725933000002</v>
       </c>
       <c r="B19" s="1">
-        <v>11.105757</v>
+        <v>11.105757000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1251.770000</v>
+        <v>1251.77</v>
       </c>
       <c r="D19" s="1">
-        <v>-285.148000</v>
+        <v>-285.14800000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>39991.524829</v>
+        <v>39991.524829000002</v>
       </c>
       <c r="G19" s="1">
-        <v>11.108757</v>
+        <v>11.108757000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1274.610000</v>
+        <v>1274.6099999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-248.402000</v>
+        <v>-248.40199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>40002.013727</v>
+        <v>40002.013726999998</v>
       </c>
       <c r="L19" s="1">
-        <v>11.111670</v>
+        <v>11.11167</v>
       </c>
       <c r="M19" s="1">
-        <v>1309.340000</v>
+        <v>1309.3399999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-196.235000</v>
+        <v>-196.23500000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>40012.591441</v>
+        <v>40012.591440999997</v>
       </c>
       <c r="Q19" s="1">
         <v>11.114609</v>
       </c>
       <c r="R19" s="1">
-        <v>1322.100000</v>
+        <v>1322.1</v>
       </c>
       <c r="S19" s="1">
-        <v>-180.714000</v>
+        <v>-180.714</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>40023.068901</v>
+        <v>40023.068900999999</v>
       </c>
       <c r="V19" s="1">
         <v>11.117519</v>
       </c>
       <c r="W19" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.268000</v>
+        <v>-169.268</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>40033.211126</v>
+        <v>40033.211126000002</v>
       </c>
       <c r="AA19" s="1">
         <v>11.120336</v>
       </c>
       <c r="AB19" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.623000</v>
+        <v>-168.62299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>40043.687138</v>
+        <v>40043.687138000001</v>
       </c>
       <c r="AF19" s="1">
         <v>11.123246</v>
       </c>
       <c r="AG19" s="1">
-        <v>1368.710000</v>
+        <v>1368.71</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.865000</v>
+        <v>-178.86500000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>40054.257370</v>
+        <v>40054.257369999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.126183</v>
+        <v>11.126182999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1389.900000</v>
+        <v>1389.9</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.058000</v>
+        <v>-209.05799999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>40064.679773</v>
+        <v>40064.679773000003</v>
       </c>
       <c r="AP19" s="1">
         <v>11.129078</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1411.840000</v>
+        <v>1411.84</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.040000</v>
+        <v>-253.04</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>40075.754446</v>
+        <v>40075.754445999999</v>
       </c>
       <c r="AU19" s="1">
         <v>11.132154</v>
       </c>
       <c r="AV19" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.190000</v>
+        <v>-313.19</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>40086.799891</v>
+        <v>40086.799891000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>11.135222</v>
+        <v>11.135222000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.424000</v>
+        <v>-365.42399999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>40097.466322</v>
@@ -5015,73 +5431,73 @@
         <v>11.138185</v>
       </c>
       <c r="BF19" s="1">
-        <v>1540.770000</v>
+        <v>1540.77</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.846000</v>
+        <v>-614.846</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>40108.476018</v>
+        <v>40108.476018000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.141243</v>
+        <v>11.141242999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1694.580000</v>
+        <v>1694.58</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1062.510000</v>
+        <v>-1062.51</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>40119.332949</v>
+        <v>40119.332949000003</v>
       </c>
       <c r="BO19" s="1">
         <v>11.144259</v>
       </c>
       <c r="BP19" s="1">
-        <v>1988.020000</v>
+        <v>1988.02</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1839.650000</v>
+        <v>-1839.65</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>40130.797973</v>
+        <v>40130.797973000001</v>
       </c>
       <c r="BT19" s="1">
         <v>11.147444</v>
       </c>
       <c r="BU19" s="1">
-        <v>2372.670000</v>
+        <v>2372.67</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2739.280000</v>
+        <v>-2739.28</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>40142.123126</v>
+        <v>40142.123125999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.150590</v>
+        <v>11.150589999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2857.870000</v>
+        <v>2857.87</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3719.890000</v>
+        <v>-3719.89</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>40154.674885</v>
@@ -5090,45 +5506,45 @@
         <v>11.154076</v>
       </c>
       <c r="CE19" s="1">
-        <v>4289.470000</v>
+        <v>4289.47</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6102.920000</v>
+        <v>-6102.92</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>39981.093997</v>
+        <v>39981.093997000004</v>
       </c>
       <c r="B20" s="1">
-        <v>11.105859</v>
+        <v>11.105859000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1252.150000</v>
+        <v>1252.1500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-285.637000</v>
+        <v>-285.637</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>39991.870542</v>
+        <v>39991.870541999997</v>
       </c>
       <c r="G20" s="1">
         <v>11.108853</v>
       </c>
       <c r="H20" s="1">
-        <v>1274.730000</v>
+        <v>1274.73</v>
       </c>
       <c r="I20" s="1">
-        <v>-248.689000</v>
+        <v>-248.68899999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>40002.359935</v>
@@ -5137,512 +5553,512 @@
         <v>11.111767</v>
       </c>
       <c r="M20" s="1">
-        <v>1309.420000</v>
+        <v>1309.42</v>
       </c>
       <c r="N20" s="1">
-        <v>-196.096000</v>
+        <v>-196.096</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>40012.939137</v>
+        <v>40012.939137000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>11.114705</v>
+        <v>11.114705000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1322.090000</v>
+        <v>1322.09</v>
       </c>
       <c r="S20" s="1">
-        <v>-180.744000</v>
+        <v>-180.744</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>40023.413155</v>
+        <v>40023.413155000002</v>
       </c>
       <c r="V20" s="1">
-        <v>11.117615</v>
+        <v>11.117615000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.428000</v>
+        <v>-169.428</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>40033.632728</v>
+        <v>40033.632727999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.120454</v>
+        <v>11.120454000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1355.140000</v>
+        <v>1355.14</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.667000</v>
+        <v>-168.667</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>40044.234716</v>
+        <v>40044.234715999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.123399</v>
+        <v>11.123398999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1368.690000</v>
+        <v>1368.69</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.796000</v>
+        <v>-178.79599999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>40054.549482</v>
+        <v>40054.549482000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.126264</v>
+        <v>11.126264000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1389.940000</v>
+        <v>1389.94</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.068000</v>
+        <v>-209.06800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>40065.038877</v>
+        <v>40065.038876999999</v>
       </c>
       <c r="AP20" s="1">
         <v>11.129177</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1411.840000</v>
+        <v>1411.84</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.013000</v>
+        <v>-253.01300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>40076.118509</v>
       </c>
       <c r="AU20" s="1">
-        <v>11.132255</v>
+        <v>11.132255000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1436.530000</v>
+        <v>1436.53</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.202000</v>
+        <v>-313.202</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>40087.159467</v>
+        <v>40087.159466999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>11.135322</v>
       </c>
       <c r="BA20" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.425000</v>
+        <v>-365.42500000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>40097.826914</v>
+        <v>40097.826913999997</v>
       </c>
       <c r="BE20" s="1">
         <v>11.138285</v>
       </c>
       <c r="BF20" s="1">
-        <v>1540.860000</v>
+        <v>1540.86</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.804000</v>
+        <v>-614.80399999999997</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>40109.227953</v>
+        <v>40109.227953000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.141452</v>
+        <v>11.141451999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1694.560000</v>
+        <v>1694.56</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1062.620000</v>
+        <v>-1062.6199999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>40119.765001</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.144379</v>
+        <v>11.144379000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1988.220000</v>
+        <v>1988.22</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1839.590000</v>
+        <v>-1839.59</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>40131.226022</v>
+        <v>40131.226022000003</v>
       </c>
       <c r="BT20" s="1">
         <v>11.147563</v>
       </c>
       <c r="BU20" s="1">
-        <v>2372.270000</v>
+        <v>2372.27</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2739.280000</v>
+        <v>-2739.28</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>40142.558645</v>
+        <v>40142.558644999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.150711</v>
+        <v>11.150710999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2857.970000</v>
+        <v>2857.97</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3720.150000</v>
+        <v>-3720.15</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>40155.195222</v>
+        <v>40155.195222000002</v>
       </c>
       <c r="CD20" s="1">
         <v>11.154221</v>
       </c>
       <c r="CE20" s="1">
-        <v>4277.380000</v>
+        <v>4277.38</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6085.400000</v>
+        <v>-6085.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>39981.438720</v>
+        <v>39981.438719999998</v>
       </c>
       <c r="B21" s="1">
         <v>11.105955</v>
       </c>
       <c r="C21" s="1">
-        <v>1252.080000</v>
+        <v>1252.08</v>
       </c>
       <c r="D21" s="1">
-        <v>-285.112000</v>
+        <v>-285.11200000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>39992.216254</v>
+        <v>39992.216253999999</v>
       </c>
       <c r="G21" s="1">
-        <v>11.108949</v>
+        <v>11.108949000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1274.030000</v>
+        <v>1274.03</v>
       </c>
       <c r="I21" s="1">
-        <v>-250.000000</v>
+        <v>-250</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>40002.705647</v>
+        <v>40002.705647000003</v>
       </c>
       <c r="L21" s="1">
         <v>11.111863</v>
       </c>
       <c r="M21" s="1">
-        <v>1309.470000</v>
+        <v>1309.47</v>
       </c>
       <c r="N21" s="1">
-        <v>-195.792000</v>
+        <v>-195.792</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>40013.366740</v>
+        <v>40013.366739999998</v>
       </c>
       <c r="Q21" s="1">
         <v>11.114824</v>
       </c>
       <c r="R21" s="1">
-        <v>1322.040000</v>
+        <v>1322.04</v>
       </c>
       <c r="S21" s="1">
-        <v>-180.726000</v>
+        <v>-180.726</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>40023.926023</v>
       </c>
       <c r="V21" s="1">
-        <v>11.117757</v>
+        <v>11.117756999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1336.450000</v>
+        <v>1336.45</v>
       </c>
       <c r="X21" s="1">
-        <v>-169.274000</v>
+        <v>-169.274</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>40033.920869</v>
+        <v>40033.920869000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.120534</v>
+        <v>11.120533999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1355.260000</v>
+        <v>1355.26</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.507000</v>
+        <v>-168.50700000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>40044.365128</v>
+        <v>40044.365127999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>11.123435</v>
+        <v>11.123435000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1368.700000</v>
+        <v>1368.7</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.824000</v>
+        <v>-178.82400000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>40054.899659</v>
+        <v>40054.899659000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.126361</v>
+        <v>11.126360999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1389.940000</v>
+        <v>1389.94</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.046000</v>
+        <v>-209.04599999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>40065.399467</v>
+        <v>40065.399467000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>11.129278</v>
+        <v>11.129277999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.033000</v>
+        <v>-253.03299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>40076.484062</v>
+        <v>40076.484062000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>11.132357</v>
+        <v>11.132357000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1436.510000</v>
+        <v>1436.51</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.177000</v>
+        <v>-313.17700000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>40087.875692</v>
+        <v>40087.875692000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.135521</v>
+        <v>11.135521000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1455.790000</v>
+        <v>1455.79</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.422000</v>
+        <v>-365.42200000000003</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>40098.550079</v>
+        <v>40098.550079000001</v>
       </c>
       <c r="BE21" s="1">
         <v>11.138486</v>
       </c>
       <c r="BF21" s="1">
-        <v>1540.760000</v>
+        <v>1540.76</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.803000</v>
+        <v>-614.803</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>40109.602460</v>
+        <v>40109.602460000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>11.141556</v>
       </c>
       <c r="BK21" s="1">
-        <v>1694.570000</v>
+        <v>1694.57</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1062.630000</v>
+        <v>-1062.6300000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>40120.148371</v>
+        <v>40120.148371000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.144486</v>
+        <v>11.144486000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1988.250000</v>
+        <v>1988.25</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1839.430000</v>
+        <v>-1839.43</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>40131.639684</v>
+        <v>40131.639684000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.147678</v>
+        <v>11.147678000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2372.350000</v>
+        <v>2372.35</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2738.710000</v>
+        <v>-2738.71</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>40143.288567</v>
+        <v>40143.288567000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.150913</v>
+        <v>11.150912999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2857.910000</v>
+        <v>2857.91</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3720.590000</v>
+        <v>-3720.59</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>40156.054756</v>
+        <v>40156.054755999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.154460</v>
+        <v>11.15446</v>
       </c>
       <c r="CE21" s="1">
-        <v>4292.880000</v>
+        <v>4292.88</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6096.200000</v>
+        <v>-6096.2</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>39981.784394</v>
+        <v>39981.784394000002</v>
       </c>
       <c r="B22" s="1">
-        <v>11.106051</v>
+        <v>11.106051000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1251.450000</v>
+        <v>1251.45</v>
       </c>
       <c r="D22" s="1">
-        <v>-285.790000</v>
+        <v>-285.79000000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>39992.633921</v>
+        <v>39992.633921000001</v>
       </c>
       <c r="G22" s="1">
-        <v>11.109065</v>
+        <v>11.109064999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.870000</v>
+        <v>1273.8699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-249.549000</v>
+        <v>-249.54900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>40003.143117</v>
@@ -5651,390 +6067,390 @@
         <v>11.111984</v>
       </c>
       <c r="M22" s="1">
-        <v>1309.480000</v>
+        <v>1309.48</v>
       </c>
       <c r="N22" s="1">
-        <v>-196.229000</v>
+        <v>-196.22900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>40013.646399</v>
+        <v>40013.646398999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>11.114902</v>
+        <v>11.114902000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1321.940000</v>
+        <v>1321.94</v>
       </c>
       <c r="S22" s="1">
-        <v>-180.598000</v>
+        <v>-180.59800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>40024.101074</v>
+        <v>40024.101073999998</v>
       </c>
       <c r="V22" s="1">
         <v>11.117806</v>
       </c>
       <c r="W22" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="X22" s="1">
-        <v>-169.349000</v>
+        <v>-169.34899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>40034.271046</v>
+        <v>40034.271046000002</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.120631</v>
+        <v>11.120630999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1355.110000</v>
+        <v>1355.11</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.652000</v>
+        <v>-168.65199999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>40044.709387</v>
+        <v>40044.709387000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.123530</v>
+        <v>11.123530000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1368.700000</v>
+        <v>1368.7</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.854000</v>
+        <v>-178.85400000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>40055.248377</v>
+        <v>40055.248377000004</v>
       </c>
       <c r="AK22" s="1">
         <v>11.126458</v>
       </c>
       <c r="AL22" s="1">
-        <v>1389.860000</v>
+        <v>1389.86</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.027000</v>
+        <v>-209.02699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>40066.117706</v>
+        <v>40066.117705999997</v>
       </c>
       <c r="AP22" s="1">
         <v>11.129477</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1411.840000</v>
+        <v>1411.84</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.037000</v>
+        <v>-253.03700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>40077.217644</v>
+        <v>40077.217643999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.132560</v>
+        <v>11.13256</v>
       </c>
       <c r="AV22" s="1">
-        <v>1436.500000</v>
+        <v>1436.5</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.152000</v>
+        <v>-313.15199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>40088.235775</v>
+        <v>40088.235775000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.135621</v>
       </c>
       <c r="BA22" s="1">
-        <v>1455.840000</v>
+        <v>1455.84</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.446000</v>
+        <v>-365.44600000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>40098.939478</v>
       </c>
       <c r="BE22" s="1">
-        <v>11.138594</v>
+        <v>11.138593999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1540.820000</v>
+        <v>1540.82</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.820000</v>
+        <v>-614.82000000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>40109.980881</v>
+        <v>40109.980881000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>11.141661</v>
+        <v>11.141660999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1694.550000</v>
+        <v>1694.55</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1062.490000</v>
+        <v>-1062.49</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>40120.567532</v>
+        <v>40120.567532000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>11.144602</v>
+        <v>11.144602000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1988.160000</v>
+        <v>1988.16</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1839.610000</v>
+        <v>-1839.61</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>40132.381731</v>
+        <v>40132.381731000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.147884</v>
+        <v>11.147883999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2372.310000</v>
+        <v>2372.31</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2738.470000</v>
+        <v>-2738.47</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>40143.428596</v>
+        <v>40143.428595999998</v>
       </c>
       <c r="BY22" s="1">
         <v>11.150952</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2857.450000</v>
+        <v>2857.45</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3720.430000</v>
+        <v>-3720.43</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>40156.272499</v>
+        <v>40156.272498999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.154520</v>
+        <v>11.15452</v>
       </c>
       <c r="CE22" s="1">
-        <v>4292.690000</v>
+        <v>4292.6899999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6099.990000</v>
+        <v>-6099.99</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>39982.210990</v>
+        <v>39982.21099</v>
       </c>
       <c r="B23" s="1">
-        <v>11.106170</v>
+        <v>11.106170000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1251.840000</v>
+        <v>1251.8399999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-285.069000</v>
+        <v>-285.06900000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>39992.912172</v>
+        <v>39992.912171999997</v>
       </c>
       <c r="G23" s="1">
         <v>11.109142</v>
       </c>
       <c r="H23" s="1">
-        <v>1274.860000</v>
+        <v>1274.8599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-249.603000</v>
+        <v>-249.60300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>40003.415423</v>
+        <v>40003.415422999999</v>
       </c>
       <c r="L23" s="1">
-        <v>11.112060</v>
+        <v>11.11206</v>
       </c>
       <c r="M23" s="1">
-        <v>1309.310000</v>
+        <v>1309.31</v>
       </c>
       <c r="N23" s="1">
-        <v>-196.081000</v>
+        <v>-196.08099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>40013.994095</v>
+        <v>40013.994095000002</v>
       </c>
       <c r="Q23" s="1">
         <v>11.114998</v>
       </c>
       <c r="R23" s="1">
-        <v>1322.020000</v>
+        <v>1322.02</v>
       </c>
       <c r="S23" s="1">
-        <v>-180.558000</v>
+        <v>-180.55799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>40024.445794</v>
+        <v>40024.445793999999</v>
       </c>
       <c r="V23" s="1">
-        <v>11.117902</v>
+        <v>11.117902000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1336.300000</v>
+        <v>1336.3</v>
       </c>
       <c r="X23" s="1">
-        <v>-169.297000</v>
+        <v>-169.297</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>40034.616756</v>
+        <v>40034.616756000003</v>
       </c>
       <c r="AA23" s="1">
         <v>11.120727</v>
       </c>
       <c r="AB23" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.689000</v>
+        <v>-168.68899999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>40045.395318</v>
+        <v>40045.395318000003</v>
       </c>
       <c r="AF23" s="1">
         <v>11.123721</v>
       </c>
       <c r="AG23" s="1">
-        <v>1368.670000</v>
+        <v>1368.67</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.747000</v>
+        <v>-178.74700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>40055.943768</v>
+        <v>40055.943767999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>11.126651</v>
+        <v>11.126651000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1389.940000</v>
+        <v>1389.94</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.078000</v>
+        <v>-209.078</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>40066.482235</v>
+        <v>40066.482235000003</v>
       </c>
       <c r="AP23" s="1">
         <v>11.129578</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.032000</v>
+        <v>-253.03200000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>40077.599099</v>
+        <v>40077.599098999999</v>
       </c>
       <c r="AU23" s="1">
         <v>11.132666</v>
       </c>
       <c r="AV23" s="1">
-        <v>1436.500000</v>
+        <v>1436.5</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.169000</v>
+        <v>-313.16899999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>40088.593549</v>
+        <v>40088.593548999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>11.135720</v>
+        <v>11.135719999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1455.840000</v>
+        <v>1455.84</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.420000</v>
+        <v>-365.42</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>40099.301023</v>
@@ -6043,105 +6459,105 @@
         <v>11.138695</v>
       </c>
       <c r="BF23" s="1">
-        <v>1540.780000</v>
+        <v>1540.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.773000</v>
+        <v>-614.77300000000002</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>40110.686724</v>
+        <v>40110.686723999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>11.141857</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.610000</v>
+        <v>1694.61</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1062.530000</v>
+        <v>-1062.53</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>40121.271811</v>
+        <v>40121.271810999999</v>
       </c>
       <c r="BO23" s="1">
         <v>11.144798</v>
       </c>
       <c r="BP23" s="1">
-        <v>1988.160000</v>
+        <v>1988.16</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1839.410000</v>
+        <v>-1839.41</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>40132.496811</v>
+        <v>40132.496810999997</v>
       </c>
       <c r="BT23" s="1">
         <v>11.147916</v>
       </c>
       <c r="BU23" s="1">
-        <v>2372.210000</v>
+        <v>2372.21</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2738.150000</v>
+        <v>-2738.15</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>40143.855267</v>
+        <v>40143.855266999999</v>
       </c>
       <c r="BY23" s="1">
         <v>11.151071</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2858.480000</v>
+        <v>2858.48</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3721.150000</v>
+        <v>-3721.15</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>40156.788340</v>
+        <v>40156.788339999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.154663</v>
+        <v>11.154662999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4283.330000</v>
+        <v>4283.33</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6084.460000</v>
+        <v>-6084.46</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>39982.478298</v>
+        <v>39982.478298000002</v>
       </c>
       <c r="B24" s="1">
         <v>11.106244</v>
       </c>
       <c r="C24" s="1">
-        <v>1252.020000</v>
+        <v>1252.02</v>
       </c>
       <c r="D24" s="1">
-        <v>-285.080000</v>
+        <v>-285.08</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>39993.255867</v>
@@ -6150,193 +6566,193 @@
         <v>11.109238</v>
       </c>
       <c r="H24" s="1">
-        <v>1274.290000</v>
+        <v>1274.29</v>
       </c>
       <c r="I24" s="1">
-        <v>-249.438000</v>
+        <v>-249.43799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>40003.782461</v>
+        <v>40003.782461000003</v>
       </c>
       <c r="L24" s="1">
         <v>11.112162</v>
       </c>
       <c r="M24" s="1">
-        <v>1309.420000</v>
+        <v>1309.42</v>
       </c>
       <c r="N24" s="1">
-        <v>-196.131000</v>
+        <v>-196.131</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>40014.342287</v>
+        <v>40014.342286999999</v>
       </c>
       <c r="Q24" s="1">
         <v>11.115095</v>
       </c>
       <c r="R24" s="1">
-        <v>1322.150000</v>
+        <v>1322.15</v>
       </c>
       <c r="S24" s="1">
-        <v>-180.644000</v>
+        <v>-180.64400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>40024.890210</v>
+        <v>40024.890209999998</v>
       </c>
       <c r="V24" s="1">
-        <v>11.118025</v>
+        <v>11.118024999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="X24" s="1">
-        <v>-169.390000</v>
+        <v>-169.39</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>40035.315620</v>
+        <v>40035.315620000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.120921</v>
+        <v>11.120920999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1354.990000</v>
+        <v>1354.99</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.645000</v>
+        <v>-168.64500000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>40045.739073</v>
+        <v>40045.739072999997</v>
       </c>
       <c r="AF24" s="1">
         <v>11.123816</v>
       </c>
       <c r="AG24" s="1">
-        <v>1368.740000</v>
+        <v>1368.74</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.812000</v>
+        <v>-178.81200000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>40056.293416</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.126748</v>
+        <v>11.126747999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1389.880000</v>
+        <v>1389.88</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.085000</v>
+        <v>-209.08500000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>40066.840378</v>
+        <v>40066.840378000001</v>
       </c>
       <c r="AP24" s="1">
         <v>11.129678</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.017000</v>
+        <v>-253.017</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>40077.961163</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.132767</v>
+        <v>11.132766999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1436.500000</v>
+        <v>1436.5</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.182000</v>
+        <v>-313.18200000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>40089.272910</v>
+        <v>40089.27291</v>
       </c>
       <c r="AZ24" s="1">
         <v>11.135909</v>
       </c>
       <c r="BA24" s="1">
-        <v>1455.820000</v>
+        <v>1455.82</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.442000</v>
+        <v>-365.44200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>40099.971653</v>
+        <v>40099.971653000001</v>
       </c>
       <c r="BE24" s="1">
         <v>11.138881</v>
       </c>
       <c r="BF24" s="1">
-        <v>1540.840000</v>
+        <v>1540.84</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.804000</v>
+        <v>-614.80399999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>40111.102371</v>
+        <v>40111.102371000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.141973</v>
       </c>
       <c r="BK24" s="1">
-        <v>1694.530000</v>
+        <v>1694.53</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1062.600000</v>
+        <v>-1062.5999999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>40121.407310</v>
+        <v>40121.407310000002</v>
       </c>
       <c r="BO24" s="1">
         <v>11.144835</v>
       </c>
       <c r="BP24" s="1">
-        <v>1988.160000</v>
+        <v>1988.16</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1839.470000</v>
+        <v>-1839.47</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>40132.937714</v>
@@ -6345,46 +6761,46 @@
         <v>11.148038</v>
       </c>
       <c r="BU24" s="1">
-        <v>2371.950000</v>
+        <v>2371.9499999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2737.850000</v>
+        <v>-2737.85</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>40144.272819</v>
+        <v>40144.272818999998</v>
       </c>
       <c r="BY24" s="1">
         <v>11.151187</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2858.070000</v>
+        <v>2858.07</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3719.900000</v>
+        <v>-3719.9</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>40157.310167</v>
+        <v>40157.310167000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>11.154808</v>
+        <v>11.154807999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4276.970000</v>
+        <v>4276.97</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6107.890000</v>
+        <v>-6107.89</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>39982.821528</v>
       </c>
@@ -6392,13 +6808,13 @@
         <v>11.106339</v>
       </c>
       <c r="C25" s="1">
-        <v>1252.010000</v>
+        <v>1252.01</v>
       </c>
       <c r="D25" s="1">
-        <v>-285.189000</v>
+        <v>-285.18900000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>39993.606539</v>
@@ -6407,163 +6823,163 @@
         <v>11.109335</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.770000</v>
+        <v>1273.77</v>
       </c>
       <c r="I25" s="1">
-        <v>-247.993000</v>
+        <v>-247.99299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>40004.429244</v>
+        <v>40004.429243999999</v>
       </c>
       <c r="L25" s="1">
-        <v>11.112341</v>
+        <v>11.112341000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1309.340000</v>
+        <v>1309.3399999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-196.020000</v>
+        <v>-196.02</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>40015.039662</v>
+        <v>40015.039662000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.115289</v>
+        <v>11.115289000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1322.100000</v>
+        <v>1322.1</v>
       </c>
       <c r="S25" s="1">
-        <v>-180.692000</v>
+        <v>-180.69200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>40025.162512</v>
+        <v>40025.162512000003</v>
       </c>
       <c r="V25" s="1">
-        <v>11.118101</v>
+        <v>11.118100999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1336.290000</v>
+        <v>1336.29</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.219000</v>
+        <v>-169.21899999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>40035.663316</v>
+        <v>40035.663315999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.121018</v>
+        <v>11.121017999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1355.140000</v>
+        <v>1355.14</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.526000</v>
+        <v>-168.52600000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>40046.081781</v>
+        <v>40046.081781000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.123912</v>
+        <v>11.123912000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1368.700000</v>
+        <v>1368.7</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.770000</v>
+        <v>-178.77</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>40056.640615</v>
+        <v>40056.640614999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.126845</v>
+        <v>11.126844999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1389.920000</v>
+        <v>1389.92</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.065000</v>
+        <v>-209.065</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>40067.523366</v>
+        <v>40067.523366000001</v>
       </c>
       <c r="AP25" s="1">
         <v>11.129868</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.036000</v>
+        <v>-253.036</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>40078.633258</v>
+        <v>40078.633258000002</v>
       </c>
       <c r="AU25" s="1">
         <v>11.132954</v>
       </c>
       <c r="AV25" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.176000</v>
+        <v>-313.17599999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>40089.698971</v>
+        <v>40089.698970999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.136027</v>
       </c>
       <c r="BA25" s="1">
-        <v>1455.860000</v>
+        <v>1455.86</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.429000</v>
+        <v>-365.42899999999997</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>40100.414080</v>
+        <v>40100.414080000002</v>
       </c>
       <c r="BE25" s="1">
         <v>11.139004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1540.820000</v>
+        <v>1540.82</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.813000</v>
+        <v>-614.81299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>40111.481775</v>
@@ -6572,332 +6988,333 @@
         <v>11.142078</v>
       </c>
       <c r="BK25" s="1">
-        <v>1694.480000</v>
+        <v>1694.48</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1062.520000</v>
+        <v>-1062.52</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>40121.873954</v>
+        <v>40121.873954000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.144965</v>
+        <v>11.144964999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1988.100000</v>
+        <v>1988.1</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1839.350000</v>
+        <v>-1839.35</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>40133.346419</v>
+        <v>40133.346419000001</v>
       </c>
       <c r="BT25" s="1">
         <v>11.148152</v>
       </c>
       <c r="BU25" s="1">
-        <v>2372.300000</v>
+        <v>2372.3000000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2737.560000</v>
+        <v>-2737.56</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>40144.718692</v>
+        <v>40144.718692000002</v>
       </c>
       <c r="BY25" s="1">
         <v>11.151311</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2857.440000</v>
+        <v>2857.44</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3720.000000</v>
+        <v>-3720</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>40157.848787</v>
+        <v>40157.848787000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.154958</v>
+        <v>11.154958000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4289.060000</v>
+        <v>4289.0600000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6090.310000</v>
+        <v>-6090.31</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>39983.162777</v>
+        <v>39983.162776999998</v>
       </c>
       <c r="B26" s="1">
         <v>11.106434</v>
       </c>
       <c r="C26" s="1">
-        <v>1252.040000</v>
+        <v>1252.04</v>
       </c>
       <c r="D26" s="1">
-        <v>-285.070000</v>
+        <v>-285.07</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>39994.297982</v>
+        <v>39994.297981999996</v>
       </c>
       <c r="G26" s="1">
         <v>11.109527</v>
       </c>
       <c r="H26" s="1">
-        <v>1273.830000</v>
+        <v>1273.83</v>
       </c>
       <c r="I26" s="1">
-        <v>-249.735000</v>
+        <v>-249.73500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>40004.817884</v>
+        <v>40004.817883999996</v>
       </c>
       <c r="L26" s="1">
         <v>11.112449</v>
       </c>
       <c r="M26" s="1">
-        <v>1309.610000</v>
+        <v>1309.6099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-196.327000</v>
+        <v>-196.327</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>40015.389374</v>
+        <v>40015.389373999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.115386</v>
+        <v>11.115386000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1322.040000</v>
+        <v>1322.04</v>
       </c>
       <c r="S26" s="1">
-        <v>-180.682000</v>
+        <v>-180.68199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>40025.506773</v>
+        <v>40025.506773000001</v>
       </c>
       <c r="V26" s="1">
-        <v>11.118196</v>
+        <v>11.118195999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.367000</v>
+        <v>-169.36699999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>40036.012500</v>
+        <v>40036.012499999997</v>
       </c>
       <c r="AA26" s="1">
         <v>11.121115</v>
       </c>
       <c r="AB26" s="1">
-        <v>1354.950000</v>
+        <v>1354.95</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.655000</v>
+        <v>-168.655</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>40046.736998</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.124094</v>
+        <v>11.124093999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1368.680000</v>
+        <v>1368.68</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.838000</v>
+        <v>-178.83799999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>40057.305750</v>
+        <v>40057.30575</v>
       </c>
       <c r="AK26" s="1">
         <v>11.127029</v>
       </c>
       <c r="AL26" s="1">
-        <v>1389.960000</v>
+        <v>1389.96</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.065000</v>
+        <v>-209.065</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>40067.940968</v>
+        <v>40067.940968000003</v>
       </c>
       <c r="AP26" s="1">
         <v>11.129984</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1411.860000</v>
+        <v>1411.86</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.032000</v>
+        <v>-253.03200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>40079.090076</v>
       </c>
       <c r="AU26" s="1">
-        <v>11.133081</v>
+        <v>11.133081000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1436.520000</v>
+        <v>1436.52</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.182000</v>
+        <v>-313.18200000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>40090.078444</v>
+        <v>40090.078443999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.136133</v>
+        <v>11.136132999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1455.800000</v>
+        <v>1455.8</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.414000</v>
+        <v>-365.41399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>40100.778606</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.139105</v>
+        <v>11.139105000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1540.800000</v>
+        <v>1540.8</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.820000</v>
+        <v>-614.82000000000005</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>40111.856750</v>
+        <v>40111.856749999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.142182</v>
       </c>
       <c r="BK26" s="1">
-        <v>1694.590000</v>
+        <v>1694.59</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1062.570000</v>
+        <v>-1062.57</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>40122.629395</v>
+        <v>40122.629395000004</v>
       </c>
       <c r="BO26" s="1">
         <v>11.145175</v>
       </c>
       <c r="BP26" s="1">
-        <v>1988.010000</v>
+        <v>1988.01</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1839.490000</v>
+        <v>-1839.49</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>40133.783393</v>
+        <v>40133.783392999998</v>
       </c>
       <c r="BT26" s="1">
         <v>11.148273</v>
       </c>
       <c r="BU26" s="1">
-        <v>2371.880000</v>
+        <v>2371.88</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2737.150000</v>
+        <v>-2737.15</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>40145.143266</v>
+        <v>40145.143265999999</v>
       </c>
       <c r="BY26" s="1">
         <v>11.151429</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2857.860000</v>
+        <v>2857.86</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3720.300000</v>
+        <v>-3720.3</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>40158.388929</v>
+        <v>40158.388929000001</v>
       </c>
       <c r="CD26" s="1">
         <v>11.155108</v>
       </c>
       <c r="CE26" s="1">
-        <v>4269.900000</v>
+        <v>4269.8999999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6091.880000</v>
+        <v>-6091.88</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>